--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8750" windowHeight="6800"/>
+    <workbookView windowWidth="18530" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
-    <t xml:space="preserve">phone </t>
+    <t>phone</t>
   </si>
   <si>
     <t>company</t>
@@ -52,37 +52,43 @@
     <t>web</t>
   </si>
   <si>
-    <t>dat</t>
+    <t>dat.lethanh2</t>
+  </si>
+  <si>
+    <t>Lê Thành Đạt</t>
   </si>
   <si>
     <t>dat.lethanh2@ncc.asia</t>
   </si>
   <si>
-    <t>ncc</t>
+    <t>NCCPLUS VIETNAM JSC</t>
   </si>
   <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgVFRUYGBgYGBoYGhwYGBgYGBgYGBgcGhoaGhkcIS4lHB4rHxoYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHjQhJCs0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0ND80NDQ0ND03NP/AABEIARoAswMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQMEBQYHAgj/xABFEAACAQIDBAYGBwcCBgMBAAABAgADEQQSIQUxQVEGImFxgZETMqGxwdEHQlJUYpPwFSNygpKy4RTxJENzosLSNFNjF//EABkBAAMBAQEAAAAAAAAAAAAAAAABAwIEBf/EACERAAICAgIDAQEBAAAAAAAAAAABAhESIQMxQVFhIgRx/9oADAMBAAIRAxEAPwDSLQQ7QWnacNB2hEwi0a4raCILu6oPxMB74DHQIgtIB+k2G3+lHeA59qi3tjyhtlCAxPVO5wLr48jAeLJO0EbVNooNcykaagi2sdExWJxCnVoQhiMVB5YMs6EEVjoICCHBAAQQrQWgB1aFaAQzADmC0MCACABWgtOoUACghwQAMRPU7twNu02hZpCbWL1H/wBMhKhhndwfUQWBRfxMdO4seEVDjsSxO1alZ2pYQDqnLUrMAUS2hCD67du4RGn0fpoc1V3qvvuxLN4HePC0nEpJSRUpqFA0Ue8mQW29uLRVgozuLZydFUndmI3t+EeyC9sovUTnHVsLQHWooSeaKxP8x3SsYrbiI96CJTz6MEvZuV1KhfG19eMgtq7Zao13fuG4eQkHiMbY3Jvrffuicr6KKNdkvi8SzPqbgcBpru8NJcsB02yIq1EzsqhQVIG4WuQd57ZmuGqs9zz47rR0lJgb3v3RW0NxUjS8N06uwDUbAm3Ve7eAI+MtuDxqVBdDe28biD2iYajsDe9v1xkvsrbD0HDqe8G+Vhya0FL2ZlxJ9Gyi86UyC2H0lpYiyk5Kh+qTo38Dce7fJ0LNWmQcWtMO0ICdWgAgIFoRigEGWZsdCdoAsUyzoLHYUJWgtFgsPJM2axG8EX9HDFOPJCxY3tBHHo4IZDxI2p1deHH5iROyF6r1m0NV3YknQJTPo015ZVzfzmTVVLggb7GQGy6d6NFN3Uu455LAjxbfzsZsxHoX2jimRC49dyqUwR6uY6Ejuux7rTLOkG0QWyKTkS9tfWJ1ZyeJJ4y69Ltom4UfV0/nYdbyW3nMux5LOR+u2Zbt0X41SsbPVZt2nhGhQlo9Y2BA4e+CjR4wWjUtiNB29VR3x1Y8z5yY2fsFqhBAsDLBS6KAf7TMpI1GLKYlY3s1wefuvHeGqZgQdCN/wPdLJiuizW0PskK2znpMC43aX3gqfqt2TFm8TnDYkobHgd3FTzXlNS6J9IhVUU6j3f6rHTP2H8XvmW4mmL2P8rfBu33wYXFNSYHUa6jkRFflGZRT0ze7QESv9FdvCugVj1wL/wAY5944ywyidnPKNBqZ1eJQXjozYrDESDw1eKh5Cl4Lws0EVDyDDTsGJwCFDTFLwTmCILGlpXqdX0depSUZmc5qY+qLgu6k/VszM1uNzbdJv/Sqd+Y/ztbyvIza1FBh6thly5nUr1SrjcykbjKGI0UDpHiAXexuqMwv9pvrN4m/gBKjUW2Z+NreOv68JM4026nIC/aT+jI3EqNF5an4CSUt2deNKiOenw7vM/oSb2Ls/Ow9siwMzheep8f8S8dHMOB5wlKhxjZY9m4UKoAEkQgidLdFxMobEXpyJ24aaJmcXJ0UcWPISbdrC8qNeoWqnEVdES4pqf7j7/8AaAEPW2JVyF2CqDuTW4Hed3dIhhk0YZk3fiTsN+ElsZtGtiMxptkANluDdyCBYAbvWB14X3Wjw7AfJmJu9ute1m5g/ODtAqZG7Gxb0XDI2l7qeTcj37u2a7sraArU1deI1H2W4iYoEai2t8hNtd6nirS69DtolHyFuq9u49vePdHGSTJzhaNEDQjCUTqWOXYVoIcK0YgXh3gtCiA7DzoPEwIcVDsUzQROCFDs5WQ/SAgUKl9xB/uA+UmJWem+Iy4YrxdwPC1z8I3pBBfpGZYl7kueZI9w+PnIirXvc8BoO1jaPMa2thykcBmGm4MB7RII7WxfAG9fxPs0l+2EOHaZm6Vcla/4j7TL9s/FhEaodbC4A4k2AHmZmXaNQemXFLAXJsO2N12xRLZFdWPYb+0SAbZb1V9Ji6jAHUU1NgvK/b3axqmIpI5SgmYjflIuLAnVmIF9DpfgY/8ADP8ApdFOaQu19mF7AW0YEgi4IG8W4xbZddioazC/BrXHkTJYDNrBb7Dor+A2VkOYjXt1sOQ5CTFOjFqgsIitYRt0OKsh9sbLUtqLhwQRzZRcHvyg6/hEq+ymKO1Ik9RxlbiNdCPMec0Gogcp2Mf7GHxlH2nhCmJJH2CfFWI+Akm0UUTU9nYosi5tGsCeR03jsj4GRmzVDUk5gbxvBEdq5GjefA/rlOqP6imefNYyaHJEK0JTAYzIZEK0EMGABWgtOrwQsDi0E7ghYqGmKxCoOsbk+qo9Zrb7D3k6DeSJmvSvaLVHIYjq2AVSSEuQdTxY6HhoBJfHY+rXqGhhVZybekrNa2hOp4WHBBoORlf6UYJaDiihLZVVmZvWd31LMfhMN6Lwikys4vQFuYAHiB/mMMIPW7GU++8fbR9YDgov47oyw7WD9pt5D/MyuizGGJPXPafjLv0VxCuiZtSjA+K7r+wykYsda/f7DHnR/aRpVbn1SQG+cUo2hRlTNE6SLXfKtIEm+pvawO899r275xs/YIVswTKNLLcG3e1gTx33375Y8BUV0DCxuI/FMRRbRRpPsbUKOUWnSPbuilQ6RjUpB1ynUE6jgew8xCWgSsemtmsFtv1vxHZOsStMKWc2AF9N+nIDUmQOM2ilLQbxppuB5dp7I52GxqOGe5JPVU7+1m8Nw7ZNs6eP+dtZdIkNjUnzddcuYXA35ewnnaQW3Eti3W31NO9ut85oKICbyv7WwAfEZvsp4kliR4ayUuhRach7sV7p3E+R6ynyMkyAZE7NORlB0DKUsftU2I9oI8pLhbTp/nl+a9HD/VGpWvJwlxp5f5iwnBInay7OWgWh5YIZgMK0EEEADgggiAY4DAJRQIg72OrO3FmPEkzLullfPi3PBTb+kZB7QTNZrvlUnkL+WsxrbJOck72VT45R+vGZl0V49u2V3H1bXPaT4DQRrS0KryUk97G/yhYx8zWHE+wbpzSbrk9tvKZ8FvI3xQ184MHYnKfCd4odaIU13zS6E+y/9F9rvTGRw2QcSPV8eI90vtLEBgCDcGYzsLba0gVqhjrcFQD4HXf2yT2d03ZKhzJ+5J0UeunaOBvvI8u2VOyilGjUKjSJr+nN0p5VFtWa5btCqPeTHGzdrUa65qbqw423qeTLvU98e3EyyiaWyv09jspvpf7RJJ8NNJN7KplNw7yd5/xHAUQy9oJIo+eTWJY8GwK3kdj0yYlHPqupp9gbePMA+Ud7Kw7AZnBF9wO+3MjhHdeirgqwuDpy8QeBHA9klPekYTpkXjaNnte2ch0PKootb+ZY+wlbOgbcdxHIjfGVi37itfMNUfdnA3MOTjiPnOMPUdGOYXceuFGlReDoPtDiO+b43izPJHKP0l8s5y23TtHBAINwdxhzqTOBqnTCWHaEYcDILQWhwQAK0EOCAETjWKUnVzcBHIY8QEO/tmU9JKTLSp1SLekDoNb6UStP3CbFjqIZHUi4KMPZM36R7Pb9m4ZjdsjNfd1Q7sP7svnBleNmYFuuOzXxi1NfVP4oilM59efvj16dlX+KZKob41NTGi7++SGPXrHuv7pG1N4guhPsTZdYtTHDyib750pt3RiR0UZDnRmRhxVipHcRrLv0O2/UqKUdyzrxNrsp3HttulQYbx2Rx0YqFcQrDkQe64k5K0Ui6Zq61X5+yL0Wa98xuIjhzcAxyiznpl00W7A4oOo521747AsZXNkV8rWPGWINrFQpfAV8OrizAHiOYPMHge2MsVhWNgbm2qsujqedtx/WkDY61fJwsAe+SjKDNIy7VFdWs6Pbex3qeqlQ80J0R/wm1/bJLDYlHF1O7QgizKeTKdQY5q0wdGAI7d8i2ogVBckHg31gPsvzHI+46mkZUYlBT+MkbQwImjG5Vt48iOY/WkVy+2WUkzmlBphWgtOiphRmaCgggjMiVX1T3GVvFYb0mC9Hxeico/EWDqfAkHwk/j36jAbyCPPfCwlEKiL9lFAv2KBA2tHnmooLq1rai9+HWtOqvqL3n4x50hRUxdZUN1Fapa271gdO4kjwjRtSi95Pde/uiovYntBdb9lvZ/iRL8JMYjrAnt+BkYKJawA5e8xiY3qzuihYW8pP4HYTuwOS/HrKQPE/KWGl0dVSlwMzsDYC1gupsOXCGLoVqykeifNlCm408pYdg7JKkuw1I8uMs77HVHJy2Daj4jz98cGkFFhJyT6Kxrsc4FiFEkqbAxphafVjhVtJY0UTHNNtdJL0dokWuLyJppxEcKsVWOzhqhz5uN7y14WpmUHjaVXJrJXZmJy6Hd7oNA9od4vG26q+tuPZGWFP7xeN7+6HiFAJN+M4wtUZ17/hHGIukSeKSw6ptppyH+IQrCynsMLaL7u6RdfGKlsxCi287gfhfd5Tai1snknol8PiMzHlraJ/6rW0YU6xUEjkbeUapXLanjNyi70Yi15LHmEEhFxJhTOMvZqo+h7iU0txaw7r8u4XPhILpb0mXDUzlF3dT6ME20tbPbeEHM2vwvHm39piihY20GbXVVF7AsONzoFG8jleZNtxXqWr1nI9Ic6o+rumtncjRV3BVHlbfRsjGNkFTBJLnuW/EnUt5zqqcmvEjKOwAanzgRizXt1Ru5E8Jw/XcDhu/Xt84FBVUOTvHwkn0cpEPbJm42tv/V40q2vb9cpbOj+z2TJVPO5/hIsYR7CXRLYdqhWyUCDzcqq+wk+ySOA2cQc7kM5HAWVexeySKpO1E6KOfIb4jBB0ykbjcd/+YwTZqHXXzk2sjcajI2dfVPrDkefcff3yc4+SkJ+AkwYHExzToIN4J8be6cU3uIpeRcSykPcNh6TCwUqexiffFG2aBufzEYI9o4XFNzk3B+Dakg2wzLyMbljFqtc843vNRj7FKXoJnJ3xxs1LuSTYAfr3RAxzTWy256mVjGyUpUjuu9yY0xtEOtiLgix7jF2gI0l1FUQcndjHAVCBkY3scvjw8CNfZBRbS3LSLNR1vzHu1B8Iiu89598lPSKw2KZjBBBI2UK70/xY/wBQlJxemCKrqDq4W6hOwHIRfhnaUPaOKfE1WqVDvO4aCw3ADgoGgHKS/S3HtUrVKnB2K0+AKp1LjsLBz4mQadVO0wbFFaOKrgA23AW8x8veIMBTsC57h/Ef8RBgWbKO8953CPBvVBw/RMLNJDzZWDNSoBwvczRFpgLlA0taQnRzChRmtqfcJPsY4uhNWSOGbMins9o0iltY32Y3VI5N79fnHTb50wdo55KmEIZW+/UGEYFM2YGRo5D+E7uzsMVEcxBqBHq+R+Bk5Q8orCfhnM6E5seIMMSdFLOiZzO1pkxRKYG/WNRbE5I7wmHubncI59EC2m7jEVY7uE7qPawHjNKLRNysPE4XLqDp7pxhtGF/Hukg3WTw+EjEMcW2mmJpJ2hSvQKk8r/7RhXWzH9cJNZ7r4e6Q20XtUA5oD7SPhIzetlYLejiCcwSdlTMOkKsFw6MqKUQIcjq9yXZyzFdASzNpwkZiqgUWG5Rqe3ebST6QVHdC7EAkmyjegB3WHH9b7yuu1wB+I+Nv9odiFcO2RSx37/OO9hjOwPM+yRLuSGHdbw/Rk90SS4HlAZoOzqdlEfERLCrYCLmAUONnaFhzAPl/vHjSOwT9cDncfH4STYS3DK0Q5Y0xO8AghzopkGwCHeFBHQWGIJzBaFDs7zTkvDE5hQrOqTa3ilXfExATFWx2PaFXqgRtUGphIYGmcaY3LQtRfS0iNot++X/AKajyd7+8STpSK2uLVEPNWHkR85HmWi3C9nd4JzeCQLGU7RxStTsiKiqTYgEM17DrEk3+EhXp2APj5yS2lWGTQBQbWA4CIFLoAd4AHyMaBkXVNgCOctPRAC+m695Vqu6x3gyzdBl33+1G+hLs0qiNIs0SoxUxGiOTEFMRTA3O+U9mhlleVmov76j/wBRfZrLMRK8C7I876OCIIZhTqTOcEEEKBkOCckwXjsA4cTdwoLHQAEnuAuZXm6c4Af8/wAqdU+XUiHRZYLxvgcWlVEqIbo4DKbEXB7DqIveAjtDO3Gkgsd0ow1Cr6KtVyPYNqjFbNuuyqQPGTxNxE2aSOUO+R22vWpn+MeeQ/Ax8u490abVS9MNxR1Pger8R5SPKrRTjdMREE4DQTno6jGsYS7hOR62vs9/lEExJ9KbagnL4bvgIAbAkasdB47z+uc5pplI7LsfD/NhNUYOsamVgedx5bpY+hfrHvlertdEvvufZLN0RpEANz+BtF4DyaDS3TtzpEKLaRVzpA0IYNM1dTwW58SCPdeTxMjdlUt78zYR85J0EtxKokOV2zoG8KrUVFLuwVVBZmJsAALkk8BKrsXpgtfGHDqlkCvZ2IzO6EbgNAtg54ndunf0k4xkwLhb/vHSmTyU3Y+YS380oidEhs3pHhsRUalRqZ2Rcx6pCkXAJUkdbUjdzjjbW01w9F6zbkGg4sx0VR3kgTK/o4rBcaoP10qKO/Ln/wDCXv6QKJbA1bfVKN4LUW/sJmr0DSszbE9Mcc5JOIZQeCBUA7AQL+2T/QPpXWNcYes7VFqk5WZizI4BO871IG7gbWhfRfhqbtXD00dlCMpdVawJYNa40+rLJs3oZhqeIFZXdnR84XMgVSSSOqFvlgrG6LWy3Fjx085gm2dlvhqrUalsygG4NwVOqnym93mR/Sen/GHto0z/AHD4RszE0noxg3o4alSfLmRSDlJI1YkakDgRJUmNdn1M1Kmx+siN5oDHIEGIxXp3Wz46tyUqn9KKD7by67T2jUfZOGxFOo6unowzKSDdM1Jr24ZrXvpM42tiPSYis/23dvAubey00z6K8SHwb0m1CVGFt90dQ3lcvMFPA06DdLMRXrmhXKMvo2YNkCvmDKBcrZT6x4S91EzKy/aFvHh7bTLOjdIUa+NWw9LRo1Hpkk2BouCwI3EEhPAaSZ2d9ItMnLiKbUzf1k66acSPWHheJ7CvRaKbGwgidOqtUCpSyuj9ZWFxe+/Q7tbjwgnPgy2aMdp7sx3bhCZeHE7+wcoqlPQG2g3dvznZp8OGpY92/wDXMgRWOhs4vlA4fGX3YOGyIg45VPmLyq7J2c1aslIDrORfsBF79wXWaI9EK5sNOETNIe0t06bdOaZ0jjDJdwPHyjWxPRHbL6T03xT4NFYejVgGOmd0NnAXlvN+NjLCwNjbfY277aTF9q444falSsv1MSzEc1J648VLDxm1U6gYBlNwwBB5gi4PlOlLVHPIxLoNXKY/Dkn1nKn+dGX3sJsO2Nl08TT9FVBKFlY5TlN1Nxrw5eMzTpTTWjtWmUUIA2GcBQFAAKg2A/hM1hppGWzD9hkUNpIvBcSafgztS9zTXtr4P01CrSBAL03QE7gzKcpPYDaY90n/AHWPrsN61zUHiRUHvE2wtyjQSMBxOHrYeo1Js6ODYqpIzDha3rKeE7wGLrYWqKi5kdRezAjMDwZTvUzVE6Y4Rq60utnL+jzFAApuRYuTcLeVD6S6qPiKbI6ufRZHysGylXYi9jobMfKZNWajgqudEcbnRXHcyg/GZj9KtO2Jpt9qio/pdvnL90Pq58Hh2vf90i+KjKfaJl/Tfbf+pr2yZPRF6XrZs2V2624W7o2ZXZqnR574XDnnRp/2LHePr5KVR/sI7f0qT8Jje0elNV6VClTZ6IpUwjZKjDOVAAY5bW3Hnvlkx+3XTZNG/XNcPRdmLFgOuL3vqbC2sLDEoWFxDJmtY50KG4vo2/uOm+Xj6JsVbEVaXB6WbxpsB7nPlIDohVoio6VsOtYMjsuYkFTSR6hAt9oLa/C0HRTaiYfHJWY5KQZw29sqMjBQbamxy+URosHSQegx9drdWrQddP8A9adj/wB4jXbXRhTg6OKoq7u6IaiqMwXMhYvYC6i4A5dbhJr6UaAVqNUfWV0PaBqP7/ZIjYlR0x+CXMwD0aG42DI+HzBTbeAWO/nEwRfuhCBcDhx+C/8AUxb4wSbywTIWYdUuzKiizEKCeCX1Yk89T3BYuyqxFxZABUYbuoATTp9jMoJ73HKHgsIWXFVTqtNPNqtRaXhZWqHxnFXrhFGhquz25JmCUx3AIT/NOc6C7fRpswkPi3HWcOtPu+uw5fZHcZNYlNZOYHDJSRKaCyohUdykDz4yIxI1jkqSMxdtiSyQwCaFuekjxJmkmVQOQ/3muNWw5HSMT6W4ctj8SgGudn8Agc+y80n6Pcb6XA07m5p5qR7kPV/7Csz3p7h2/aFVVBZnFNgALkkoosANTqJYvoxrmk+IwtQFKmZGVGuGJynOMvCyhT4zoRFrQz+k9MmKpVOdNde1Hb/2E0fae0Eoo9Wo1kT1iAWIuQBoNb3I85k/T7bLV8Q1JkVBh3dFIJLNqLlj25QbAecnOieGfEbMxFLezvUCF79YlEIJY7+vx7I0JoqHTHaNLEYp6tHNkZUBzDKSyoFJtysBLH0a6Z4iti6NJygpsCmVVtc5DlYsbknMo421MVwH0ZmwNfEAc1prf/vb/wBZadk9DsLQZXSmWdTcO7FiCNxA0UHtAiVjbRQel/RKvTxDvTR6qVXZ1KIzFSxLFGVQbWvodxEYYLodjHKj0DIpNsz2UKL7yGIOnK021zE981iZyEdl4NKNNKSCyooUc9OJ7SbnxlRxX0dUnd3NeoM7s9gqWGdi1h5y8gTgxtGU2UT/APmtH/76vknykzU6G0Gw1PDM9QpTdnVgyByzFib9W1useEsSiKARUPJlQwP0f4em+dKlYkK6gMUI66MhvZATox4ys7T+jWut/RVEqDX1ro3tuPbNWEBioFJlN+kzDk4OmQLlKgUczdDu/pjvEdH/APicLUzoowwpoQxsXHocgyniwKHSWxqKuMrqrDQ2YAi41BseUzD6WkdaqkZvRvQUHflLo9QjsJAcd2btmX2bRp14IhTOg7h7oIAZZsRwcNjaZ+vh86ntpkPb3n+UxXolhS1WkWFwjUFPHejEi/jaROw6vVrI4/5LAcDrfKfNx4Sz9FUyKWINms403ZHR/wCz3Ccy7Lv2aLg75FB9ZVKtfeSLa+Oh8ZD198mnAVi3CxVu6+h8Lnz7JCOdZrk8GeLydYalmcchqfDdJMxpgB63h8Y7M3xR1Znll+qMn+kXFZMfTekStSnTQkkaZrsVIvvFjbwifR/DV6u0hXphnUVRUdydFSoM1ix/A1gsvHSLommLr0qrsVVEKuqjrOM2ZRm+qNW7ddLb5O4egiKqIoRFFlVRYACWUSbkQ56J4Y4ipiHXO7tms+qKbAGyj1r2v1ryZZQLAAADcBoB4RRjEwJroxdhqJ2NIBE2eFBZy5naLOEEWjAJjE4bGEIgOliiTgRRRASAZ0qazlpDdLdrvQoKKdw9TMocfUVbZiPxdYW5TEpUbjG2Waims42vs2nWptTqorqw1Vhp3jiD2iZJh8ZjBvxVdbi9jWAuCN+plhGKxTf6V/SVD6N0p1OvcNkrA3fmSjqpPGxkXLZZRLhaCFeCbJmf7R6O5cSoRgpdMgUA6XCID5l3twC9olux2ACjKosAAe9Xpmk3fYKp8ZkKbWxHpb+nq3vv9I9/XPG8d4vbWJuP+Jrcf+a/4e2TN2bQj5qQb7SA/wBSj5yIK6kTLMNtrE5FH+prWyLp6V7bhwvEG2xiPvFb81/nMzdm+PRs2CTqk8z7ouTMYp7axNv/AJNb81/nD/bWJ+8VvzX+cvCVR6JTVs2UmFaY3+2sT94rfmv84DtrE/ea35r/ADm8/hjD6bJOgJjI21ifvNb81/nDO2sT94rfmv8AOLP4PH6bE7ROY4dtYn7xW/Nf5wDbWJ+8VvzX+cM/gsPptCLDYzGhtrE/ea35r/Oc/trE/eK35r/OGfwMPpscCzG/21ifvFb81/nDG2sT94rfmv8AOGfweP02dRFJi/7axP3it+a/znX7bxP3mt+a/wA4Z/BUbKZBdLaYNNG+yxX+oqf/AAmbftrE/eK35r/ONcftauyANXqkXO+o5+qeZmJPRSMaZvHRoWwFHsw6j+lLfCQexUth3Xga2b+l8Ow9gaZLs/buKAVRia4XKwy+lqZbXbS17RF9sYgU9MRWHX4VXH1V7Zzljc4JjH7axP3it+a/zglsiNH/2Q==</t>
   </si>
   <si>
-    <t>inter</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT3-m_3j1EZDCj4XI1iSeCIZP6xxWtO0NJlIdbyjzA&amp;s</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>vn</t>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2RW5KbGMybDZaVjkwYjE5bWFYUmJCMmtCcWpBPSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--79eee5883893a012786006950460867831e6f661/nccsoft-logo.png</t>
+  </si>
+  <si>
+    <t>We do it with passion</t>
+  </si>
+  <si>
+    <t>138, Hà Huy Tập, Vinh, Nghệ An, Việt Nam</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
-    <t>ncc.com</t>
-  </si>
-  <si>
-    <t>the</t>
+    <t>http://ncc.asia/</t>
+  </si>
+  <si>
+    <t>the.letien</t>
+  </si>
+  <si>
+    <t>Lê Tiến Thế</t>
   </si>
   <si>
     <t>the.letien@ncc.asia</t>
@@ -99,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,8 +127,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,18 +157,72 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,70 +234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -244,6 +243,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -251,7 +257,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,187 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,17 +463,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,6 +522,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -548,170 +563,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,13 +1044,22 @@
   <sheetPr/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
   <cols>
+    <col min="1" max="1" width="29.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="23.7272727272727" customWidth="1"/>
     <col min="3" max="3" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="24.3818181818182" customWidth="1"/>
+    <col min="6" max="6" width="13.0454545454545" customWidth="1"/>
+    <col min="7" max="7" width="13.0363636363636" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="27.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="47.8" customWidth="1"/>
+    <col min="12" max="12" width="17.9636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1083,86 +1101,89 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
         <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
         <v>17</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="dat.lethanh2@ncc.asia"/>
     <hyperlink ref="C3" r:id="rId2" display="the.letien@ncc.asia"/>
-    <hyperlink ref="H2" r:id="rId3" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT3-m_3j1EZDCj4XI1iSeCIZP6xxWtO0NJlIdbyjzA&amp;s"/>
+    <hyperlink ref="H2" r:id="rId3" display="https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2RW5KbGMybDZaVjkwYjE5bWFYUmJCMmtCcWpBPSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--79eee5883893a012786006950460867831e6f661/nccsoft-logo.png" tooltip="https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bk"/>
+    <hyperlink ref="H3" r:id="rId3" display="https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2RW5KbGMybDZaVjkwYjE5bWFYUmJCMmtCcWpBPSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--79eee5883893a012786006950460867831e6f661/nccsoft-logo.png"/>
+    <hyperlink ref="L2" r:id="rId4" display="http://ncc.asia/"/>
+    <hyperlink ref="L3" r:id="rId4" display="http://ncc.asia/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6950"/>
+    <workbookView windowWidth="16428" windowHeight="8592"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,39 @@
     <t>web</t>
   </si>
   <si>
+    <t>the.letien</t>
+  </si>
+  <si>
+    <t>Lê Tiến Thế</t>
+  </si>
+  <si>
+    <t>the.letien@ncc.asia</t>
+  </si>
+  <si>
+    <t>NCCPLUS VIETNAM JSC</t>
+  </si>
+  <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFhYYGRgaGhoaGBoaHBgaHBwcHBoaGh4cGhgcIS4lHCErIRgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHzQrJCw0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0MTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAQMAwgMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAECBwj/xABHEAACAQIEAwUFBQYEBAQHAAABAhEAAwQSITEFQVEiYXGBoQYTMpGxQlLB0fAUYnKCkuEjM6LxBxVT0iSywuIWQ1Rzk5Sj/8QAGgEAAwEBAQEAAAAAAAAAAAAAAQIDBAAFBv/EACMRAAICAgICAwEBAQAAAAAAAAABAhEDIRIxQVETIjJhcRT/2gAMAwEAAhEDEQA/AL21DvRxtVhsCrqSREU3rZYEDfcHoRqPUCpcPbzKG2kbcx1HiDp5UwFsDlQ6rldl5NLr4zDgeZDfzmu5HUDvZFRMOlG3IodhVIsDIAnWoby0aLZri5aplLZwqKVyUpgMLXfuAKpzQtCw2SahayKaPbNC3BRU2wUBXEAoV1o84cms/YzVVNLyK1YqdK5/ZyacDDgcqxcGWpllSF4CcYapkwJOp0HfTYWQvjQ1655mu+WUujuKXZCMKq6mo2cDYfjW7hJ3/XlUQUDfQetNFX2K36N5yRpt1oS/cHjUz9rRVNYcLl+LeqxSXYrtgBBNclaLcdKjFuqqRNg8VlE+7rKPJC0er5a0RXVhs6gxG4IO4YGGU+BBFSm3Xzh6tA2WhcZbMZgJKHMB15MB3lSwHfFMGSoyhoig3uwRI1nauRYqbDJllPu6r/A05fkQy+CipMlG2Ah92Kia1Xd3FINC6g+I+lRjFJvmUjqDI86NnUc+7qNrVGoQwlSCO6s933UU2Cha9gt4ViYADemXuzXQtE0eTBQqawByrkYYnlTZrccqwKIruTDQpOEjcVE9uO6nLChr6AcqKk/IGhFfQnYUHctxTq4DyFBPhWY61phOibFDqTWksU7sYFZ7XyG/9qkfBzssfrrVfmS0JQqRwgMDtHu2oV7ZYzTv9g61tMATRWSK2c4tiFcLUq4KN6eNbROWvzoYozdwo/K2K4pC/wDZR0rKP9yOtZR5s6kXF+w+b7LkK3c+gVvPRD35O+iqx0DAqRIIII7joaHw9w6oxlliT94H4W8wCD+8rdK8ijdZOwmtZRW65u3AoLHYV1AB8WwSHJgLIY9FMSfIhT4A1Rfaf2yCv7q0jux0VRIJJ2kLt4GPyZe0/EXgKNCxhF6dXYdwmB4bTXl78ZSznNte2ZVWOpCnckn7R5nXntOovdDxjq2N8V7RYywVN7DoqE6QZ8R8TAHxFM7Pt3YCSVcudssAg95JIjumvMsVxB3JLHehVczNFWc0j0XGe35zTbQr1MhSe8hRE99Wn2X9u0vOLd2FLGFY6GeQbkfEV4sgZjoCaPtW3QglT1phWj6XCCu6o3sV7YLeQW7h7ajXv1gHz086uK4meVHi2LpEptg71z7oVFcxXSomvE7mjxYLRO6CoSgrkGaxpo0CzllHSuHA6CunbrUT3QBNGhWzNfu1oIals9rU6CuHvgaLRVgI2QL8RoS/dJ0G1TtbZtdh1NQMQOc1SNCNg/u+6uXQ+FStcNDOw561VCOjiF+8Kyusy/d9aymsBeoofFWzo6ySsyBqWU/EoHXQEd4A5miiK5JrzjaRqQQCDIIBBGxB2PhUV62Dq3LUc9fDrXElCVJCqxJTc67sv/qA/iGy0JjVZlMs6r4lXbu7MZAdtZOvKlbCkece3/Fsrui63D2d/gQSG8yRXm2KXL48zVx4raAzuFEu45R2UG897anxql498znoNBU4Pky0lxQEFJNPOG8GLjXbSg+F2QziavvDrUDaqSlQsVYNgeCqigUxHD1I2o9EqQLQTDxK7ieFPab31jR1mV+8OY86uHsz7RftNs6ZXTsup3B/LQ0h4jxEoQiLmc/JR1Nb4WptXTdkF3AV1URJGqtHMjUHuPdWjFJXTIZYurRdffNUllyTWsJbzqG2mi0tgbCrSlFaRCKYRbQgSdqHv4vko866uMSIJqJbK9Kkmu2O2+kDFmY6maltoNz6/gKJWzFZ7nmdaLmuheLI4Zu4eprbKE5SalOKVNIk0vxGKdv3R3fnQim/8BJpHOJuE/EY7v1vQrOOXr+VaeTuSa0i1dJJEXJtnDTUZFElK17uu50GgbIayivdVlD5EdxZeCKiZe+iLgG80K7gcxWJG1qiC/YDCJg7htyCNiJ+nPagcddm0xAhoKsOjZTprymCD0g0e2JA6fOlPGnGRnDDkGAI1Oynx1jwjpSy1FseG5JHlHtPdyLymJ8JJ/tVCczVm9r8SM5QGYJLHvP62qrvrSYo1ErldsdcCtyZq94G3oKpHAjrp1H1q5vivdoIEu2iiul2CIxuOqCWIA765s4pX+EzSG9hZOe++vJZ0HlRuCdDohGm4rrodHPFF90Ll4CSFLf0qTHpSzgqNcKXWzh8xkkkKwj7KA7axJ6c5q3KgYQRWkw6rsoFFMDiWPgGKDrkPxDbvH506FvuqlYbEFHV13Uz/avQUxKFVYRDAEeBE1VTtGeUOLAhhyeVSiyF3IqZsSPCgrl+dh511ti6R2z/ACqNmHIT6fWo8zHYfOttZY7t5D+1cLZG58B+v1yoe8g3JolrQHKoTamnjJE5JgJWTXa2u6jVw9SBIrpZRVjYGMP1rDbolyKHd6m5tlVA4y1lazVlDkw8C1X2X72viPxoRgx2ceQH50YLbRAhenP0H51sWG5ufIKB9CfWusrQGMKT/wDMbyUH/wBNIfa4hbL52ZlVCzTKgcgIAGp2GnOrTdwynViTHIs0eYB1rzP/AIk31FlgigBm7MAZiBpMnZZk9+YbaVOT8DwWzxzEuSxOmpnTbXpQxapHqMiqgH/s4wzGrtaA+KNYgd1eaYDEFGB+deg8MxYZQetSmikGKeI4K7iLh3CqezI0O8mPp59atXCsCVALkswULmO5AojDBaNDCgpeCnHyDkwYqG9ilHLM3IAxNbxBMyDrtrSjEZLMsTLHUncnxJ8dBXJnVehjiHIAPX61ePZrFTh107SkrPqPQ15nw92vXFLnQSVXyImOW9eh+ygK23HR/qo/Kmj2SzRcVTHRsM+p07zW/dIu/aPpWEsa0Ep2zNRw948gBUJBO5orJUbAClckg8WyEJW4rLoDKQDHLQ7GO6keF46huXFYhVWIkgDTQ0rkOsdpsdMaHe4c0GIjTrPOk/E/aOzbYAMXbYrb7XQ77T660pxXF8Tc+BBaAMgvq3jHntFdFSl0D6rss2JuALLPkHUkD1NV3Ge1FlIVBnJ3iYB+pNKnwDOZu3Hc9+g8Klt4dUnKoH8I117zqa0RwSfZOWVLoJ/+J2/+nf1/Kt0NI/U1lV/5l7F+ZnsdaM1uhnvEzkiObt8IjoBq3oO+spoNYwSApiGPa0+yASRvsYg9xNeU+3OIa77z3YLyHOYCEVFOQkGO1J6T8APKvScZhAQHcl8pzZT8MQQf8MaEiZ1BOm9U/ituMO7EgyojuUZxHmHB8SahldFsas8KuLyqOKnvLBI7zQ1w1o8Ehlh8OCubeabcKxBSQDmHPqKreFxbIdIIO4O39quPBGF1A0ZQSVA325zHp3UrTehlJIfYHFyNDTNb01ScRjhh73u2ESAVIMgg6ajdTIIjWnOH4kCKk1RWMrDuILeP+Xl7y06eApWnC7pMtqepP0HKmtvFg1MMWvWusopNdGuG4AJ2iZbrV69khmR/4l+h/tVLwhe8wS2uZj3gDTmSdAKv+Cspg7OVmBYy7E82gbDeBAH+9MnRDJ9uxkUqG48TETymkuI9qrZJVAzmNMik6x06eelIMQcXdMlgg7zJ0/cXTYDc0yjJkbii33cYgUsXAA+In7PiKrXEfay0MyIGd9IABIJzDp89htQScEUznd3ncFsqn+Vd/Mmi0wyIIVVUdwA+lMsXsDn6BW4riruUZFtKGUsxMMVBMgJrGh302pNhsClxmLgkTMSRMzvFP8Rojfwt5aHvpZwxYzSY0Hz/ABoqKU0hlJ/E2TWsKiaIgXwET4ka/OtmO4+YMbfnRLESNDvEQZJ8BrHeaBxeMVZgdrWZjKPlv9PGtDnGC2Z4wlN6OcTeCDUweh3I8DsPGuAFYBl237UEnr2Ry8qFtYfOczloOwjVvE8l/WnM1QCICZVkCG0J8tIFHG5SfJ9ehsqhFcY7flkWZP0rf91aqfOn30/0/wDdWVYznqdxgTHIbxz6D8/KtOWYgAQBqfLb11/lqdBE+P4Ctga15xuAsfaPu3ObXI8ctcpik3FeHr7i8kQmQldpHZ28NfrVgxqzbcdVYehoS4mZTI0ZSpHTQwPkx+VSyKykHR8x8Xt5brg9TS24Ks/tjhMl0abqJ8df7fOq24qsJXFME1UmgejMBxO7YnI0AmSCAQSOcH8OgoQ1yacQmxmLe6xdzLHy06AVYvZvFFxladDAPXnE9aq6qSQBqeVXTg3D8qbTtI6+fLxqcq6Y8b7Q6TCTzqVcLFc4O8RuZWYk6MD0ccj37GDExTQCRUuLT2WTTWjrhSkOqqxRiYDDcTp3VYjwlG1uM90j/qMSP6f96rNt8rAjcHSrPf4mQAQo1ggyY9K0QqtmfIm5aCVtKohQAByAAHyFaI/X62pW3FH/AHY6Za7w/FTs6iOo0PrvT8kTcJBjL3z5a/3qMoYO3dv6jnU/aiVjXadvGFifnUV+4FQliQBvlgTryjafGmuhO9C7ijFLcGJbsjXXXUmOQgUvweKCHWYI5d3nrzrjH4jO06hQIAOunjS17vLXSs8pfbkjXCK48WN8bxQxlSQDptqfChMPhM3bZ1AUg5d48RzPSJoNcSoPUjYbmdtAKEw3End4QGScojnOnyNcpLlb2dKFRajos4cAF5kT1MnWNTpHpUF0EqW+FZjWCdvsggD5CO+jWwig6uCeigEzG2gIA8ZrHwZUQAZ30Et9TH9Q7q3JnnCn33/3f/5/lWUz/kf/APLc/Kspjj1Ksqr8Y9srNpf8OLjTqJKADrJHa8qr/E/blns9iEYntAZpC9c5gQT01/HCbD0O/cVVJYhVgySQB8zSHE8fsJpmLEgaKNmGxkwDpG3SvNsTj8RiMnbe4xmAJMCFHl9ramn/ACu88MSE7MGdWkb6c4EdKlJ7KRS8lU9v0DOGGmpIHcTpr4GqM3OvT/bjh+RF5wBr4Ej8Qa8yurBP62/2NdheqHyq3YIa5rt967wtnO6r1OtWI0M+A4LMcx/l/Or3gkAEUBwrh4AUfIdKtWF4eAJqTdloqhUuCYSyjXXoZB5Ecx3VNYflt3fgJ38N/Gn1u1FdvhUcdpQfGmS1TFlraEot7GmaWy9rLzVtPKDHyPpXDIqtlJ0M6HcGJ35ggH9GicEuUsJ3hh5aE+q08IpOvDEk7V+UC3E51C2lFXvjI5bjz/RoXE6CaWeho7GvDbgZMpXMRt3A/vRpz+dLfaW7kyW1CqIzFVA01IAkedE8Ec5wojtAjWeXa5eFJvaRh+0PlIgZQMsRookad80XK4k4xqYsxN1wBlPjUHaIkk/IfoUUqZqn9yOdSo0oUe5zaMJBHPnVk4Jw5kAf3csR8bwEQdd5JI6Duka1zwvh4uEkoxQbRoCddS2mg7qfYkQqoEXbRSwAAnfKqknxjxNXxQr7MzZ8t/VAC4orKpBG2ZECKTzgnMW8l8Sa3iMUwEBSwHx3HfsjwXWT5Ci3sKwAKsx+6BAj+aAR4gio72FAiVQDZc7T/Tr6AedaTGJTxW5ye1HLR/zrKZ+6/ftf0D/urKNI4B4f7H4loa5ktqTrJzN5KvPzFWDDezGHQHPmf4c2YgLppMDlzgkju2qxvb6g92gJ8ZOkd561HdhBrr05yOnmYjavP5M20L8qoAqIAvwgKAPKBz8q2loqxB3In5aEf+WjCmSWYCSOpYgdIjTblpQ91wsPzB7ttjJ8YPlQChH7S4MNZ7ewC66bSF06/F9K8g4/hQj5horAMB05N6z869x4hZz2XAMko4iNZysNOmsRPSvIePxdUsvIggRrD7iPNfkaS+MrKr7RoqDL+VNOAWZJaNiBS1hv4j8vwqx8CtAIvUknymB9D6VZvQkUXDhFrtL03q1qNKQ8KULr5fSnDXqi5bLJaJQ1SK1Bh6mRqopCtEfEMJnAI+JTp3jmD5E1Dw24ZAPf9P8Aaj1NCXLeVg3KQfWapF7RKS0ybEpz6fQ/3n50txz9hu5SfkKduo57bGq7xQlUcHkGHpRyxpgxO1QXwhzmQ7GR66d3WguOj/xLq3LKOX3F6ac664fc0FR8eJN7OSSWRWkwOq6BdIGWPKp+BmvtYMoy+FGYCx714iVGrb69BI258xtQuHWabYDEJZVmZXYsYARXY6CfsiBvuSKMFcjsk2ojV8IuUB8oRdlGg8IEk+lL8bxZfhRLrRytoVX+ZuXmfKohxlXJyoy9QSueP4UFxx/pqUYcN2ir6aqGEuf4TcZiPktal/TC2C2LuJchAyWgRIVSrPHUmCoHeFJ7xUd7Cvmy2rWePiu3GJDHukkuPFiO4VI+OdGyyltSf8u2Pe3m73acqnxOlc47G3Cvai0p2DMzO/giAE+G1MlsDZJkxXW36flWUu9wfu4j/wDXFapwHp2IuBF0TNHXQDTQ7x686F94w7byJmFLGF0I0J1178u8CdSZcQVKhhl33O8byukjaZEExv1FS6SDkQwIl3IkEk7JybbQwTppXmm43ZRAM7ETHxEjfXZNp313oexcVw+kjUZnIEk8p+xMjv7q6JZiQyM8DW4/ZVecBeR/hDd9axOKAcIOyT8Oc5SQB9lNDH8PpXHA9pgi5Xy5tRlXMY1iYgnWOgFeUXbYVvdkR2Mh6kI1yyPllPzr1rD4ZgwVAsRJhSAeRhtAANNxOteZe3OGNu5cI3zsBGkZriXNOvxn50su0imN9lIx9sqzA78/TXz386sXC1+EfdVQP6Ry+dRe09hc+kA8u/VyPQCpeDsDlI+6gPiqhfwNFStIZxpstuBvEQDz2PI/kabI9I7O0cqYYe5oKVoZDGa6R6hVq3Ncmc0Go1buLmEUMj0Qj1VMRoJzTrVb9p2ygn72UfNgv0p8pikftdbzWgRupzfyqVLemvlVpPlGyMVxlQHw59qk4r8Sfwn6z+NBYF9BRWOecnn+H5GoeC3kkwlS37bmIuBV5qUDgnqc3ZFRYaj7F60ks6Fm0CwpZtZ2A8PSqYn9iOZfU1Yw1xhBxTBfu20tg+WSY86OW2FGVEdp3ZzlJ8W3PlFcPxG6R2UZByN11t/6AQT/AFUuvNdckPi0UfctSzeEJH+omtFsyUgz3bWvgsgdTKWlH8TvLHymlz31U53vprpkw/Pua+xzHwB8q4GFsof8lnbkbhzsf5AYFdvxQIdcivyCJmfwCqdPNhTpAZz+0v8A9Ef0XT6xrWUH/wA8vdL3yT8qyiA9FwuLa83ZtuEG3+WFIIGsSVA20kt5UU2QEqFzRpocqSdwWAAPOfiI6Ur4nxRsGty3bt53Y/8Ah0AJLM5+CByVsx1I7JHjTJLlxbaG7kS6UUuEzMM+UZgo1yrMwZ2ia86S9G5HT32ChAADGuVSVA+6pMZvLXuqAYIQXuOUGzMSqloECSkHwGnhUlq47HKBlkalgzPHeEIInlOXzqUIoIYAs0dnNyHdplQd49TS9BIsNdVUZlXKqn/MeFmf3Rr03g6bdfLfbH/EfOQdbqGdBowjYbTkmO6vVXt5h24JUEgCAojWADMHkTv4bV57x/DB3BOmdy7HkqIC2nd2HjuaknLaLYo6bKJ7UJCq32iyg+VtZ9Sa54Jqk9CRI3XX1Fd+1l8N7sDQ5WcjoXYR6A1nsoZDDo34T+dNG+KOl+iz4V2gbMOo0P5US92DoI8agtIBtpRGWuOTCcJjgTlbQ+h8DTCkRt0dhMXlhXOnI9PGhR1h4MVMj1GwrSmmTOaDlaaHx6kAMBIWZB2gxIPcRIPjXaNU6tVIsSUSlAhWZV2DHL/CdR6EVMLmYjnpGvjNF8b4UULXU1Q6sPunaf4dvCleENB6O7Q1tKCNMwPLVSPmRP1oyzwt8QwRHNsSM5zOCw2UErvudNBJ76CsNXHF+I3LNpjb+JoXN90fEWy/ajLoOuusRTxlsScVWzHvYDD5ptvcdXdO1BDZHZc+8Qcs8zrQb+0buctrDIByXtv/AKVyj0NL8CuGyJ797hiY92AWIJmCraTPPPzp1dZSSlh1w6QpTMUV7quisIe4wQNqykZgQRpyqtmVx9A17i11B20tISPhUEsfFQY+etQ2zjbo7CMiHnAtqR6A1DicZcwzFRZdHOz3pZz3poEjv7XjSbFYx7hJdyx/eJP1mKbmvArixt+zt/1LH9ZrdIZH73pWUflBxPeXw0LadBlNtwRECZBRgYHOdaLsWviJUgneSx+UnTypm9hSCOpnzmedae0PCsrRqsDywI1+ZJ+czW/L6mgMXxNEAYsMpzBXmUJB2LjQagjXrQ2J43g8uZr1tpEhQ4cnuyAnXypNDUyTimKXKyrABGVn7h9kHmRr3ATVA4m4dHvuSqk5LaSdUAI101+Ea/8AdR3F+OC6YCuVPwog7bKNYEaKNpM6dNJKbi9q9eyllVDoqW01S2J0Ab7bzBZttY13EWrbZojpUU3GsX945+0yKvcozf8AZXPsndy3GWdwI8R/vTzj2A93hkIjtszoPtZFRUE/zO586qfAny3l86rH8sST2j0azrRAFDYYzFFgUAmZaidKIBrlhXHG8Ji8nZf4eR6f2pkRQGFwedgSOwNz1j7I699NXXWqLG2rQryJOmco9T23odlraNSpjDBWnSq/xPg+Q5rY7HNR9nw/d+nhs6tvRCvT9oRqmVOwaIZlkFyuVTLBphhsV01kzyoviPDsvbQdnmo5d47vp9Fl25GmTPPLXKII1br3DnXQX2FnL6sBsYQFmSyhZM5KMROVDsCW0kDQ9450ZikQWxlC3GtEh1Ook5nVSRyj3/mO6iHt3Ck3WypE5E0kDecpmPOKAwuK7TIqBUdSyAKJZrX+IczTzQXFj94VoMt2xavH8QilEyIhIJti2htkazKPIadNSCe8VEmPwz6XLBRvv2NV87Fxoj+F18K4OBdnZQGYBiJJMRy0O2lbbDonxuFP3VEH56/Su47By0Efs2G/69vzs4mfOt0H7+z0b5mso8X7Ba9Fw9gvat3drbEIgCi0gkpuxYS2pc6GZ6x3+o2cSGGqkaA67EEfrSvlxLzlg2bXZQup8APwjWvZ/YrFXzhhndhcUlcjn3iFSZBIMFCBpCtGmomoSi+0abT0OX4FZtW3RFYI7l3HxkE7QCJyjaBrHWKRHhmHJKtcu5jsud4JHTKQxEdCIjXvsi8RZR/iW2X95JdfQZh5jzrpnS6mmR16GGE/ganQ+0V1cLaSWFpAvMKp7R2Bcse2e7tUFes3LxK20OYgqXaAEB7LGJ5L2R3k9Ksq4ASCQqjuknwBPw+VHIioIVY6AUriMpUeS/8AEXCm1bUAkgAW5jnAZtOkMg+dUDhmlxT0M16p/wAVVAw2HGhlnZj3sUY+OvpVA9msI7NcurBNtQxXmQXQSPNl8iaeKpUdJ27LjgnGUa0zs2Xb4VJ8tPntTHB2QuxHlr6ijgaZY/6I8v8ABZa4a5+IhfU+mnrRdrhyLuCx/e2/pGnzmigKyelUjjiibySZoiNBoOQ6eVRlaky12EqiQliXGXWS71UqCR5kSPlU1u4rDMpkfloa1xy18D7fYM8tyD4DtVNbtoqBUMqoPaBB6kkkcyZPnUJQbk2aI5EkkdI9Eo9LrVwMJFEI9STKtB6tpSzE2Ut5njTfUgKvlEnwoxHrMTZV0ZGEqwII7jVYunZKcbVFN4rx9SuRBM/ExnXbQDypLg+JZLiXYnKys2xJAPaUdxWR50dxXg64c9okqSchO5jkY0BEilxuoNgKv2jJ+WMPaCy6OUUtALIdSAxQwDHemQ+dAYbBc3IUd+9OOIP72wlwbm2uaPv2mNlvmnumNJ7Cidix7yY9K5b2c+xl+zYf9D/31qhvdn7p9a3TUKeuXuB4eyR7uxaQRAyog8pAk1E9sr8IA8AB86e4mHUgb7jxpQ7VBdGiRljGg6EQfT+1S3cKjaspn7wkHyZdaWX1jtcuf51tOImzrqyk/CI36idtvShKPoMZA3FeKmy6W1YsHgux+IKSy5VKjMJKmTuBt0M3su11A6PBAMKCSxXUz29zOh6U6d0vAN8RjTQSPE9KFv2jbOYDMOaz8Q6a/aHfuKRKuyneih/8TMM1xrSycoZogiO3lnTuyz863/w89nj7pbrJ2buHuKTpqTdldN9kQ/y0bg/aBsTi/dXsJ/gKSA76MrL8LASMyGTyPxjlM3i0VAhQAO4R9K6jnLwVPAYQooQntLo0GRPcTy6UbTDHYXtFhGuw2M8/WgGEVSL8E5LycMa2taNdKJqqJEiCuiVCl2MDrUOJuqi5mMDkOZ7lFIsbjGuHXRR8KjYePU0kpqI8YNmY3Gm4YGiA6Dn4nvoVJBkEiQQY5g8j1FaNZmjWs7k27ZpSSVIlsXIceGveCY28cvr1o/C4gOuYdSCOhVip8pU0kRjmLeX+q3+Ob5VHbxTW87LuGOh2Oa88D1qssdxXskslSfotCmiLdzrSXAcVRxImJIM8oJB8pG9M1Yb1FNp0yzV7RnEsCl5CjiQfmCNiO8V57j8G9t/duoBWYKiM4JkMTz/CI616Vbeh+KcOF5NDlcfA43B/EGrxkQnCyq8MtBcOQymBcDmZ+C6vunBkfuWyP4qWWr2QZAgLglW0Y6gwTyHKedN+IlVuphdYKLJOrNdKEhs7awXAUARo3hCfHoS6um1xAx6Zl7LfQH+aqxIyWibJf6L+vKsoTIeo9KymEPchcpfi9GnkfrXfvKiuHMCKgi7BnahHQHsnbdT+t6kZ+VctrVKEslsSoygnlqNNtf0KJTFlhlffn/al5YxpuPr+vrXIdioaIP5ciOR2+dJXsezWNsiDPwySWA1TT4wNcw6iOh5VJwrivaCORP2TO4025ncCanRsw6H6H8qTcRwMSyaLPaA0ynyI7Pd+FBKv8Gu++y0Y8BkqqXcU6kgMfOD9aZ8Fxjujo4JKR2uvqe/foeklPjzDGs0nU3RoirgrOG4lc6j5Cuf+Y3fvkeAUfhR1ng6lA7P9ksVVTIUJnBzbE5e0Rp0BLaUvfDgKhzCW36DvMa6fOnuXsTjHwiJ3JMsST1JJPzNaFS2rOfKAdSzCI6AEfU+EVJ+xNp2htPfrmgDqTkaI6cpoBsCd9YqN2nwGp8uVQhHzvMZQ0KQd4AmBy1mpLhjsiJ0+fIfj4A1WEPLJzn4RmeIB6knwSST/AFGlvv8AsM51E547lBuAeIdlFTY1wFfXSMinn1cz4f8AlqB1GVVPNlzDof8AMP0QVayITgQbdtE+2Rr4nUn5k1ZOH31dMynSSD4gwaqruZJG/wAK+Jp5hrgsqigSNAR16nx51OePktdlIT4vfQ7UxRVu5QgYMoI2NYhioRb8mhpGuL8IS+FaclxCCjhcxUgzESMwnWJ3qp422EDoUzGxdLQdijgjxjVG8qu9q7Q+PwKOGbKJKlG/eQzofCdKvCW9mecbWjzr/mD/APTT+hfyrKu2fCfawtpm+0fdW9TzPw8zWVemZtlmNZWVlSLAeK3rgVlZTroRm+Y8Pyrpftd6/Qr+Z+ZrKykkMiOz8Qoh9x3gz31lZTMHkQYA5eIOg0X9mYx4XlA+p+da4h8RrKysUv0bYfkBzH4ZMdJMddvGsFZWUTjhqHuOduRbb51lZTR7El0TLQ1ree5j5zE/IVlZWozAGI1Fsdyn+phNbbb+d/RyPpWVlAJLg/jXxJ9KY4r4xWVlNEDGvCXMMJ5j8aOetVlZsn7Zpx/hHdqikrKyuR0jfuV+6PkKysrKcQ//2Q==</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2RW5KbGMybDZaVjkwYjE5bWFYUmJCMmtCcWpBPSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--79eee5883893a012786006950460867831e6f661/nccsoft-logo.png</t>
+  </si>
+  <si>
+    <t>We do it with passion</t>
+  </si>
+  <si>
+    <t>138, Hà Huy Tập, Vinh, Nghệ An, Việt Nam</t>
+  </si>
+  <si>
+    <t>paly</t>
+  </si>
+  <si>
+    <t>http://ncc.asia/</t>
+  </si>
+  <si>
     <t>dat.lethanh2</t>
   </si>
   <si>
@@ -61,43 +94,10 @@
     <t>dat.lethanh2@ncc.asia</t>
   </si>
   <si>
-    <t>NCCPLUS VIETNAM JSC</t>
-  </si>
-  <si>
     <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgVFRUYGBgYGBoYGhwYGBgYGBgYGBgcGhoaGhkcIS4lHB4rHxoYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHjQhJCs0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0ND80NDQ0ND03NP/AABEIARoAswMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQMEBQYHAgj/xABFEAACAQIDBAYGBwcCBgMBAAABAgADEQQSIQUxQVEGImFxgZETMqGxwdEHQlJUYpPwFSNygpKy4RTxJENzosLSNFNjF//EABkBAAMBAQEAAAAAAAAAAAAAAAABAwIEBf/EACERAAICAgIDAQEBAAAAAAAAAAABAhESIQMxQVFhIgRx/9oADAMBAAIRAxEAPwDSLQQ7QWnacNB2hEwi0a4raCILu6oPxMB74DHQIgtIB+k2G3+lHeA59qi3tjyhtlCAxPVO5wLr48jAeLJO0EbVNooNcykaagi2sdExWJxCnVoQhiMVB5YMs6EEVjoICCHBAAQQrQWgB1aFaAQzADmC0MCACABWgtOoUACghwQAMRPU7twNu02hZpCbWL1H/wBMhKhhndwfUQWBRfxMdO4seEVDjsSxO1alZ2pYQDqnLUrMAUS2hCD67du4RGn0fpoc1V3qvvuxLN4HePC0nEpJSRUpqFA0Ue8mQW29uLRVgozuLZydFUndmI3t+EeyC9sovUTnHVsLQHWooSeaKxP8x3SsYrbiI96CJTz6MEvZuV1KhfG19eMgtq7Zao13fuG4eQkHiMbY3Jvrffuicr6KKNdkvi8SzPqbgcBpru8NJcsB02yIq1EzsqhQVIG4WuQd57ZmuGqs9zz47rR0lJgb3v3RW0NxUjS8N06uwDUbAm3Ve7eAI+MtuDxqVBdDe28biD2iYajsDe9v1xkvsrbD0HDqe8G+Vhya0FL2ZlxJ9Gyi86UyC2H0lpYiyk5Kh+qTo38Dce7fJ0LNWmQcWtMO0ICdWgAgIFoRigEGWZsdCdoAsUyzoLHYUJWgtFgsPJM2axG8EX9HDFOPJCxY3tBHHo4IZDxI2p1deHH5iROyF6r1m0NV3YknQJTPo015ZVzfzmTVVLggb7GQGy6d6NFN3Uu455LAjxbfzsZsxHoX2jimRC49dyqUwR6uY6Ejuux7rTLOkG0QWyKTkS9tfWJ1ZyeJJ4y69Ltom4UfV0/nYdbyW3nMux5LOR+u2Zbt0X41SsbPVZt2nhGhQlo9Y2BA4e+CjR4wWjUtiNB29VR3x1Y8z5yY2fsFqhBAsDLBS6KAf7TMpI1GLKYlY3s1wefuvHeGqZgQdCN/wPdLJiuizW0PskK2znpMC43aX3gqfqt2TFm8TnDYkobHgd3FTzXlNS6J9IhVUU6j3f6rHTP2H8XvmW4mmL2P8rfBu33wYXFNSYHUa6jkRFflGZRT0ze7QESv9FdvCugVj1wL/wAY5944ywyidnPKNBqZ1eJQXjozYrDESDw1eKh5Cl4Lws0EVDyDDTsGJwCFDTFLwTmCILGlpXqdX0depSUZmc5qY+qLgu6k/VszM1uNzbdJv/Sqd+Y/ztbyvIza1FBh6thly5nUr1SrjcykbjKGI0UDpHiAXexuqMwv9pvrN4m/gBKjUW2Z+NreOv68JM4026nIC/aT+jI3EqNF5an4CSUt2deNKiOenw7vM/oSb2Ls/Ow9siwMzheep8f8S8dHMOB5wlKhxjZY9m4UKoAEkQgidLdFxMobEXpyJ24aaJmcXJ0UcWPISbdrC8qNeoWqnEVdES4pqf7j7/8AaAEPW2JVyF2CqDuTW4Hed3dIhhk0YZk3fiTsN+ElsZtGtiMxptkANluDdyCBYAbvWB14X3Wjw7AfJmJu9ute1m5g/ODtAqZG7Gxb0XDI2l7qeTcj37u2a7sraArU1deI1H2W4iYoEai2t8hNtd6nirS69DtolHyFuq9u49vePdHGSTJzhaNEDQjCUTqWOXYVoIcK0YgXh3gtCiA7DzoPEwIcVDsUzQROCFDs5WQ/SAgUKl9xB/uA+UmJWem+Iy4YrxdwPC1z8I3pBBfpGZYl7kueZI9w+PnIirXvc8BoO1jaPMa2thykcBmGm4MB7RII7WxfAG9fxPs0l+2EOHaZm6Vcla/4j7TL9s/FhEaodbC4A4k2AHmZmXaNQemXFLAXJsO2N12xRLZFdWPYb+0SAbZb1V9Ji6jAHUU1NgvK/b3axqmIpI5SgmYjflIuLAnVmIF9DpfgY/8ADP8ApdFOaQu19mF7AW0YEgi4IG8W4xbZddioazC/BrXHkTJYDNrBb7Dor+A2VkOYjXt1sOQ5CTFOjFqgsIitYRt0OKsh9sbLUtqLhwQRzZRcHvyg6/hEq+ymKO1Ik9RxlbiNdCPMec0Gogcp2Mf7GHxlH2nhCmJJH2CfFWI+Akm0UUTU9nYosi5tGsCeR03jsj4GRmzVDUk5gbxvBEdq5GjefA/rlOqP6imefNYyaHJEK0JTAYzIZEK0EMGABWgtOrwQsDi0E7ghYqGmKxCoOsbk+qo9Zrb7D3k6DeSJmvSvaLVHIYjq2AVSSEuQdTxY6HhoBJfHY+rXqGhhVZybekrNa2hOp4WHBBoORlf6UYJaDiihLZVVmZvWd31LMfhMN6Lwikys4vQFuYAHiB/mMMIPW7GU++8fbR9YDgov47oyw7WD9pt5D/MyuizGGJPXPafjLv0VxCuiZtSjA+K7r+wykYsda/f7DHnR/aRpVbn1SQG+cUo2hRlTNE6SLXfKtIEm+pvawO899r275xs/YIVswTKNLLcG3e1gTx33375Y8BUV0DCxuI/FMRRbRRpPsbUKOUWnSPbuilQ6RjUpB1ynUE6jgew8xCWgSsemtmsFtv1vxHZOsStMKWc2AF9N+nIDUmQOM2ilLQbxppuB5dp7I52GxqOGe5JPVU7+1m8Nw7ZNs6eP+dtZdIkNjUnzddcuYXA35ewnnaQW3Eti3W31NO9ut85oKICbyv7WwAfEZvsp4kliR4ayUuhRach7sV7p3E+R6ynyMkyAZE7NORlB0DKUsftU2I9oI8pLhbTp/nl+a9HD/VGpWvJwlxp5f5iwnBInay7OWgWh5YIZgMK0EEEADgggiAY4DAJRQIg72OrO3FmPEkzLullfPi3PBTb+kZB7QTNZrvlUnkL+WsxrbJOck72VT45R+vGZl0V49u2V3H1bXPaT4DQRrS0KryUk97G/yhYx8zWHE+wbpzSbrk9tvKZ8FvI3xQ184MHYnKfCd4odaIU13zS6E+y/9F9rvTGRw2QcSPV8eI90vtLEBgCDcGYzsLba0gVqhjrcFQD4HXf2yT2d03ZKhzJ+5J0UeunaOBvvI8u2VOyilGjUKjSJr+nN0p5VFtWa5btCqPeTHGzdrUa65qbqw423qeTLvU98e3EyyiaWyv09jspvpf7RJJ8NNJN7KplNw7yd5/xHAUQy9oJIo+eTWJY8GwK3kdj0yYlHPqupp9gbePMA+Ud7Kw7AZnBF9wO+3MjhHdeirgqwuDpy8QeBHA9klPekYTpkXjaNnte2ch0PKootb+ZY+wlbOgbcdxHIjfGVi37itfMNUfdnA3MOTjiPnOMPUdGOYXceuFGlReDoPtDiO+b43izPJHKP0l8s5y23TtHBAINwdxhzqTOBqnTCWHaEYcDILQWhwQAK0EOCAETjWKUnVzcBHIY8QEO/tmU9JKTLSp1SLekDoNb6UStP3CbFjqIZHUi4KMPZM36R7Pb9m4ZjdsjNfd1Q7sP7svnBleNmYFuuOzXxi1NfVP4oilM59efvj16dlX+KZKob41NTGi7++SGPXrHuv7pG1N4guhPsTZdYtTHDyib750pt3RiR0UZDnRmRhxVipHcRrLv0O2/UqKUdyzrxNrsp3HttulQYbx2Rx0YqFcQrDkQe64k5K0Ui6Zq61X5+yL0Wa98xuIjhzcAxyiznpl00W7A4oOo521747AsZXNkV8rWPGWINrFQpfAV8OrizAHiOYPMHge2MsVhWNgbm2qsujqedtx/WkDY61fJwsAe+SjKDNIy7VFdWs6Pbex3qeqlQ80J0R/wm1/bJLDYlHF1O7QgizKeTKdQY5q0wdGAI7d8i2ogVBckHg31gPsvzHI+46mkZUYlBT+MkbQwImjG5Vt48iOY/WkVy+2WUkzmlBphWgtOiphRmaCgggjMiVX1T3GVvFYb0mC9Hxeico/EWDqfAkHwk/j36jAbyCPPfCwlEKiL9lFAv2KBA2tHnmooLq1rai9+HWtOqvqL3n4x50hRUxdZUN1Fapa271gdO4kjwjRtSi95Pde/uiovYntBdb9lvZ/iRL8JMYjrAnt+BkYKJawA5e8xiY3qzuihYW8pP4HYTuwOS/HrKQPE/KWGl0dVSlwMzsDYC1gupsOXCGLoVqykeifNlCm408pYdg7JKkuw1I8uMs77HVHJy2Daj4jz98cGkFFhJyT6Kxrsc4FiFEkqbAxphafVjhVtJY0UTHNNtdJL0dokWuLyJppxEcKsVWOzhqhz5uN7y14WpmUHjaVXJrJXZmJy6Hd7oNA9od4vG26q+tuPZGWFP7xeN7+6HiFAJN+M4wtUZ17/hHGIukSeKSw6ptppyH+IQrCynsMLaL7u6RdfGKlsxCi287gfhfd5Tai1snknol8PiMzHlraJ/6rW0YU6xUEjkbeUapXLanjNyi70Yi15LHmEEhFxJhTOMvZqo+h7iU0txaw7r8u4XPhILpb0mXDUzlF3dT6ME20tbPbeEHM2vwvHm39piihY20GbXVVF7AsONzoFG8jleZNtxXqWr1nI9Ic6o+rumtncjRV3BVHlbfRsjGNkFTBJLnuW/EnUt5zqqcmvEjKOwAanzgRizXt1Ru5E8Jw/XcDhu/Xt84FBVUOTvHwkn0cpEPbJm42tv/V40q2vb9cpbOj+z2TJVPO5/hIsYR7CXRLYdqhWyUCDzcqq+wk+ySOA2cQc7kM5HAWVexeySKpO1E6KOfIb4jBB0ykbjcd/+YwTZqHXXzk2sjcajI2dfVPrDkefcff3yc4+SkJ+AkwYHExzToIN4J8be6cU3uIpeRcSykPcNh6TCwUqexiffFG2aBufzEYI9o4XFNzk3B+Dakg2wzLyMbljFqtc843vNRj7FKXoJnJ3xxs1LuSTYAfr3RAxzTWy256mVjGyUpUjuu9yY0xtEOtiLgix7jF2gI0l1FUQcndjHAVCBkY3scvjw8CNfZBRbS3LSLNR1vzHu1B8Iiu89598lPSKw2KZjBBBI2UK70/xY/wBQlJxemCKrqDq4W6hOwHIRfhnaUPaOKfE1WqVDvO4aCw3ADgoGgHKS/S3HtUrVKnB2K0+AKp1LjsLBz4mQadVO0wbFFaOKrgA23AW8x8veIMBTsC57h/Ef8RBgWbKO8953CPBvVBw/RMLNJDzZWDNSoBwvczRFpgLlA0taQnRzChRmtqfcJPsY4uhNWSOGbMins9o0iltY32Y3VI5N79fnHTb50wdo55KmEIZW+/UGEYFM2YGRo5D+E7uzsMVEcxBqBHq+R+Bk5Q8orCfhnM6E5seIMMSdFLOiZzO1pkxRKYG/WNRbE5I7wmHubncI59EC2m7jEVY7uE7qPawHjNKLRNysPE4XLqDp7pxhtGF/Hukg3WTw+EjEMcW2mmJpJ2hSvQKk8r/7RhXWzH9cJNZ7r4e6Q20XtUA5oD7SPhIzetlYLejiCcwSdlTMOkKsFw6MqKUQIcjq9yXZyzFdASzNpwkZiqgUWG5Rqe3ebST6QVHdC7EAkmyjegB3WHH9b7yuu1wB+I+Nv9odiFcO2RSx37/OO9hjOwPM+yRLuSGHdbw/Rk90SS4HlAZoOzqdlEfERLCrYCLmAUONnaFhzAPl/vHjSOwT9cDncfH4STYS3DK0Q5Y0xO8AghzopkGwCHeFBHQWGIJzBaFDs7zTkvDE5hQrOqTa3ilXfExATFWx2PaFXqgRtUGphIYGmcaY3LQtRfS0iNot++X/AKajyd7+8STpSK2uLVEPNWHkR85HmWi3C9nd4JzeCQLGU7RxStTsiKiqTYgEM17DrEk3+EhXp2APj5yS2lWGTQBQbWA4CIFLoAd4AHyMaBkXVNgCOctPRAC+m695Vqu6x3gyzdBl33+1G+hLs0qiNIs0SoxUxGiOTEFMRTA3O+U9mhlleVmov76j/wBRfZrLMRK8C7I876OCIIZhTqTOcEEEKBkOCckwXjsA4cTdwoLHQAEnuAuZXm6c4Af8/wAqdU+XUiHRZYLxvgcWlVEqIbo4DKbEXB7DqIveAjtDO3Gkgsd0ow1Cr6KtVyPYNqjFbNuuyqQPGTxNxE2aSOUO+R22vWpn+MeeQ/Ax8u490abVS9MNxR1Pger8R5SPKrRTjdMREE4DQTno6jGsYS7hOR62vs9/lEExJ9KbagnL4bvgIAbAkasdB47z+uc5pplI7LsfD/NhNUYOsamVgedx5bpY+hfrHvlertdEvvufZLN0RpEANz+BtF4DyaDS3TtzpEKLaRVzpA0IYNM1dTwW58SCPdeTxMjdlUt78zYR85J0EtxKokOV2zoG8KrUVFLuwVVBZmJsAALkk8BKrsXpgtfGHDqlkCvZ2IzO6EbgNAtg54ndunf0k4xkwLhb/vHSmTyU3Y+YS380oidEhs3pHhsRUalRqZ2Rcx6pCkXAJUkdbUjdzjjbW01w9F6zbkGg4sx0VR3kgTK/o4rBcaoP10qKO/Ln/wDCXv6QKJbA1bfVKN4LUW/sJmr0DSszbE9Mcc5JOIZQeCBUA7AQL+2T/QPpXWNcYes7VFqk5WZizI4BO871IG7gbWhfRfhqbtXD00dlCMpdVawJYNa40+rLJs3oZhqeIFZXdnR84XMgVSSSOqFvlgrG6LWy3Fjx085gm2dlvhqrUalsygG4NwVOqnym93mR/Sen/GHto0z/AHD4RszE0noxg3o4alSfLmRSDlJI1YkakDgRJUmNdn1M1Kmx+siN5oDHIEGIxXp3Wz46tyUqn9KKD7by67T2jUfZOGxFOo6unowzKSDdM1Jr24ZrXvpM42tiPSYis/23dvAubey00z6K8SHwb0m1CVGFt90dQ3lcvMFPA06DdLMRXrmhXKMvo2YNkCvmDKBcrZT6x4S91EzKy/aFvHh7bTLOjdIUa+NWw9LRo1Hpkk2BouCwI3EEhPAaSZ2d9ItMnLiKbUzf1k66acSPWHheJ7CvRaKbGwgidOqtUCpSyuj9ZWFxe+/Q7tbjwgnPgy2aMdp7sx3bhCZeHE7+wcoqlPQG2g3dvznZp8OGpY92/wDXMgRWOhs4vlA4fGX3YOGyIg45VPmLyq7J2c1aslIDrORfsBF79wXWaI9EK5sNOETNIe0t06bdOaZ0jjDJdwPHyjWxPRHbL6T03xT4NFYejVgGOmd0NnAXlvN+NjLCwNjbfY277aTF9q444falSsv1MSzEc1J648VLDxm1U6gYBlNwwBB5gi4PlOlLVHPIxLoNXKY/Dkn1nKn+dGX3sJsO2Nl08TT9FVBKFlY5TlN1Nxrw5eMzTpTTWjtWmUUIA2GcBQFAAKg2A/hM1hppGWzD9hkUNpIvBcSafgztS9zTXtr4P01CrSBAL03QE7gzKcpPYDaY90n/AHWPrsN61zUHiRUHvE2wtyjQSMBxOHrYeo1Js6ODYqpIzDha3rKeE7wGLrYWqKi5kdRezAjMDwZTvUzVE6Y4Rq60utnL+jzFAApuRYuTcLeVD6S6qPiKbI6ufRZHysGylXYi9jobMfKZNWajgqudEcbnRXHcyg/GZj9KtO2Jpt9qio/pdvnL90Pq58Hh2vf90i+KjKfaJl/Tfbf+pr2yZPRF6XrZs2V2624W7o2ZXZqnR574XDnnRp/2LHePr5KVR/sI7f0qT8Jje0elNV6VClTZ6IpUwjZKjDOVAAY5bW3Hnvlkx+3XTZNG/XNcPRdmLFgOuL3vqbC2sLDEoWFxDJmtY50KG4vo2/uOm+Xj6JsVbEVaXB6WbxpsB7nPlIDohVoio6VsOtYMjsuYkFTSR6hAt9oLa/C0HRTaiYfHJWY5KQZw29sqMjBQbamxy+URosHSQegx9drdWrQddP8A9adj/wB4jXbXRhTg6OKoq7u6IaiqMwXMhYvYC6i4A5dbhJr6UaAVqNUfWV0PaBqP7/ZIjYlR0x+CXMwD0aG42DI+HzBTbeAWO/nEwRfuhCBcDhx+C/8AUxb4wSbywTIWYdUuzKiizEKCeCX1Yk89T3BYuyqxFxZABUYbuoATTp9jMoJ73HKHgsIWXFVTqtNPNqtRaXhZWqHxnFXrhFGhquz25JmCUx3AIT/NOc6C7fRpswkPi3HWcOtPu+uw5fZHcZNYlNZOYHDJSRKaCyohUdykDz4yIxI1jkqSMxdtiSyQwCaFuekjxJmkmVQOQ/3muNWw5HSMT6W4ctj8SgGudn8Agc+y80n6Pcb6XA07m5p5qR7kPV/7Csz3p7h2/aFVVBZnFNgALkkoosANTqJYvoxrmk+IwtQFKmZGVGuGJynOMvCyhT4zoRFrQz+k9MmKpVOdNde1Hb/2E0fae0Eoo9Wo1kT1iAWIuQBoNb3I85k/T7bLV8Q1JkVBh3dFIJLNqLlj25QbAecnOieGfEbMxFLezvUCF79YlEIJY7+vx7I0JoqHTHaNLEYp6tHNkZUBzDKSyoFJtysBLH0a6Z4iti6NJygpsCmVVtc5DlYsbknMo421MVwH0ZmwNfEAc1prf/vb/wBZadk9DsLQZXSmWdTcO7FiCNxA0UHtAiVjbRQel/RKvTxDvTR6qVXZ1KIzFSxLFGVQbWvodxEYYLodjHKj0DIpNsz2UKL7yGIOnK021zE981iZyEdl4NKNNKSCyooUc9OJ7SbnxlRxX0dUnd3NeoM7s9gqWGdi1h5y8gTgxtGU2UT/APmtH/76vknykzU6G0Gw1PDM9QpTdnVgyByzFib9W1useEsSiKARUPJlQwP0f4em+dKlYkK6gMUI66MhvZATox4ys7T+jWut/RVEqDX1ro3tuPbNWEBioFJlN+kzDk4OmQLlKgUczdDu/pjvEdH/APicLUzoowwpoQxsXHocgyniwKHSWxqKuMrqrDQ2YAi41BseUzD6WkdaqkZvRvQUHflLo9QjsJAcd2btmX2bRp14IhTOg7h7oIAZZsRwcNjaZ+vh86ntpkPb3n+UxXolhS1WkWFwjUFPHejEi/jaROw6vVrI4/5LAcDrfKfNx4Sz9FUyKWINms403ZHR/wCz3Ccy7Lv2aLg75FB9ZVKtfeSLa+Oh8ZD198mnAVi3CxVu6+h8Lnz7JCOdZrk8GeLydYalmcchqfDdJMxpgB63h8Y7M3xR1Znll+qMn+kXFZMfTekStSnTQkkaZrsVIvvFjbwifR/DV6u0hXphnUVRUdydFSoM1ix/A1gsvHSLommLr0qrsVVEKuqjrOM2ZRm+qNW7ddLb5O4egiKqIoRFFlVRYACWUSbkQ56J4Y4ipiHXO7tms+qKbAGyj1r2v1ryZZQLAAADcBoB4RRjEwJroxdhqJ2NIBE2eFBZy5naLOEEWjAJjE4bGEIgOliiTgRRRASAZ0qazlpDdLdrvQoKKdw9TMocfUVbZiPxdYW5TEpUbjG2Waims42vs2nWptTqorqw1Vhp3jiD2iZJh8ZjBvxVdbi9jWAuCN+plhGKxTf6V/SVD6N0p1OvcNkrA3fmSjqpPGxkXLZZRLhaCFeCbJmf7R6O5cSoRgpdMgUA6XCID5l3twC9olux2ACjKosAAe9Xpmk3fYKp8ZkKbWxHpb+nq3vv9I9/XPG8d4vbWJuP+Jrcf+a/4e2TN2bQj5qQb7SA/wBSj5yIK6kTLMNtrE5FH+prWyLp6V7bhwvEG2xiPvFb81/nMzdm+PRs2CTqk8z7ouTMYp7axNv/AJNb81/nD/bWJ+8VvzX+cvCVR6JTVs2UmFaY3+2sT94rfmv84DtrE/ea35r/ADm8/hjD6bJOgJjI21ifvNb81/nDO2sT94rfmv8AOLP4PH6bE7ROY4dtYn7xW/Nf5wDbWJ+8VvzX+cM/gsPptCLDYzGhtrE/ea35r/Oc/trE/eK35r/OGfwMPpscCzG/21ifvFb81/nDG2sT94rfmv8AOGfweP02dRFJi/7axP3it+a/znX7bxP3mt+a/wA4Z/BUbKZBdLaYNNG+yxX+oqf/AAmbftrE/eK35r/ONcftauyANXqkXO+o5+qeZmJPRSMaZvHRoWwFHsw6j+lLfCQexUth3Xga2b+l8Ow9gaZLs/buKAVRia4XKwy+lqZbXbS17RF9sYgU9MRWHX4VXH1V7Zzljc4JjH7axP3it+a/zglsiNH/2Q==</t>
   </si>
   <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2RW5KbGMybDZaVjkwYjE5bWFYUmJCMmtCcWpBPSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--79eee5883893a012786006950460867831e6f661/nccsoft-logo.png</t>
-  </si>
-  <si>
-    <t>We do it with passion</t>
-  </si>
-  <si>
-    <t>138, Hà Huy Tập, Vinh, Nghệ An, Việt Nam</t>
-  </si>
-  <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>http://ncc.asia/</t>
-  </si>
-  <si>
-    <t>the.letien</t>
-  </si>
-  <si>
-    <t>Lê Tiến Thế</t>
-  </si>
-  <si>
-    <t>the.letien@ncc.asia</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFhYYGRgaGhoaGBoaHBgaHBwcHBoaGh4cGhgcIS4lHCErIRgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHzQrJCw0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0MTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAQMAwgMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAECBwj/xABHEAACAQIEAwUFBQYEBAQHAAABAhEAAwQSITEFQVEiYXGBoQYTMpGxQlLB0fAUYnKCkuEjM6LxBxVT0iSywuIWQ1Rzk5Sj/8QAGgEAAwEBAQEAAAAAAAAAAAAAAQIDBAAFBv/EACMRAAICAgICAwEBAQAAAAAAAAABAhEDIRIxQVETIjJhcRT/2gAMAwEAAhEDEQA/AL21DvRxtVhsCrqSREU3rZYEDfcHoRqPUCpcPbzKG2kbcx1HiDp5UwFsDlQ6rldl5NLr4zDgeZDfzmu5HUDvZFRMOlG3IodhVIsDIAnWoby0aLZri5aplLZwqKVyUpgMLXfuAKpzQtCw2SahayKaPbNC3BRU2wUBXEAoV1o84cms/YzVVNLyK1YqdK5/ZyacDDgcqxcGWpllSF4CcYapkwJOp0HfTYWQvjQ1655mu+WUujuKXZCMKq6mo2cDYfjW7hJ3/XlUQUDfQetNFX2K36N5yRpt1oS/cHjUz9rRVNYcLl+LeqxSXYrtgBBNclaLcdKjFuqqRNg8VlE+7rKPJC0er5a0RXVhs6gxG4IO4YGGU+BBFSm3Xzh6tA2WhcZbMZgJKHMB15MB3lSwHfFMGSoyhoig3uwRI1nauRYqbDJllPu6r/A05fkQy+CipMlG2Ah92Kia1Xd3FINC6g+I+lRjFJvmUjqDI86NnUc+7qNrVGoQwlSCO6s933UU2Cha9gt4ViYADemXuzXQtE0eTBQqawByrkYYnlTZrccqwKIruTDQpOEjcVE9uO6nLChr6AcqKk/IGhFfQnYUHctxTq4DyFBPhWY61phOibFDqTWksU7sYFZ7XyG/9qkfBzssfrrVfmS0JQqRwgMDtHu2oV7ZYzTv9g61tMATRWSK2c4tiFcLUq4KN6eNbROWvzoYozdwo/K2K4pC/wDZR0rKP9yOtZR5s6kXF+w+b7LkK3c+gVvPRD35O+iqx0DAqRIIII7joaHw9w6oxlliT94H4W8wCD+8rdK8ijdZOwmtZRW65u3AoLHYV1AB8WwSHJgLIY9FMSfIhT4A1Rfaf2yCv7q0jux0VRIJJ2kLt4GPyZe0/EXgKNCxhF6dXYdwmB4bTXl78ZSznNte2ZVWOpCnckn7R5nXntOovdDxjq2N8V7RYywVN7DoqE6QZ8R8TAHxFM7Pt3YCSVcudssAg95JIjumvMsVxB3JLHehVczNFWc0j0XGe35zTbQr1MhSe8hRE99Wn2X9u0vOLd2FLGFY6GeQbkfEV4sgZjoCaPtW3QglT1phWj6XCCu6o3sV7YLeQW7h7ajXv1gHz086uK4meVHi2LpEptg71z7oVFcxXSomvE7mjxYLRO6CoSgrkGaxpo0CzllHSuHA6CunbrUT3QBNGhWzNfu1oIals9rU6CuHvgaLRVgI2QL8RoS/dJ0G1TtbZtdh1NQMQOc1SNCNg/u+6uXQ+FStcNDOw561VCOjiF+8Kyusy/d9aymsBeoofFWzo6ySsyBqWU/EoHXQEd4A5miiK5JrzjaRqQQCDIIBBGxB2PhUV62Dq3LUc9fDrXElCVJCqxJTc67sv/qA/iGy0JjVZlMs6r4lXbu7MZAdtZOvKlbCkece3/Fsrui63D2d/gQSG8yRXm2KXL48zVx4raAzuFEu45R2UG897anxql498znoNBU4Pky0lxQEFJNPOG8GLjXbSg+F2QziavvDrUDaqSlQsVYNgeCqigUxHD1I2o9EqQLQTDxK7ieFPab31jR1mV+8OY86uHsz7RftNs6ZXTsup3B/LQ0h4jxEoQiLmc/JR1Nb4WptXTdkF3AV1URJGqtHMjUHuPdWjFJXTIZYurRdffNUllyTWsJbzqG2mi0tgbCrSlFaRCKYRbQgSdqHv4vko866uMSIJqJbK9Kkmu2O2+kDFmY6maltoNz6/gKJWzFZ7nmdaLmuheLI4Zu4eprbKE5SalOKVNIk0vxGKdv3R3fnQim/8BJpHOJuE/EY7v1vQrOOXr+VaeTuSa0i1dJJEXJtnDTUZFElK17uu50GgbIayivdVlD5EdxZeCKiZe+iLgG80K7gcxWJG1qiC/YDCJg7htyCNiJ+nPagcddm0xAhoKsOjZTprymCD0g0e2JA6fOlPGnGRnDDkGAI1Oynx1jwjpSy1FseG5JHlHtPdyLymJ8JJ/tVCczVm9r8SM5QGYJLHvP62qrvrSYo1ErldsdcCtyZq94G3oKpHAjrp1H1q5vivdoIEu2iiul2CIxuOqCWIA765s4pX+EzSG9hZOe++vJZ0HlRuCdDohGm4rrodHPFF90Ll4CSFLf0qTHpSzgqNcKXWzh8xkkkKwj7KA7axJ6c5q3KgYQRWkw6rsoFFMDiWPgGKDrkPxDbvH506FvuqlYbEFHV13Uz/avQUxKFVYRDAEeBE1VTtGeUOLAhhyeVSiyF3IqZsSPCgrl+dh511ti6R2z/ACqNmHIT6fWo8zHYfOttZY7t5D+1cLZG58B+v1yoe8g3JolrQHKoTamnjJE5JgJWTXa2u6jVw9SBIrpZRVjYGMP1rDbolyKHd6m5tlVA4y1lazVlDkw8C1X2X72viPxoRgx2ceQH50YLbRAhenP0H51sWG5ufIKB9CfWusrQGMKT/wDMbyUH/wBNIfa4hbL52ZlVCzTKgcgIAGp2GnOrTdwynViTHIs0eYB1rzP/AIk31FlgigBm7MAZiBpMnZZk9+YbaVOT8DwWzxzEuSxOmpnTbXpQxapHqMiqgH/s4wzGrtaA+KNYgd1eaYDEFGB+deg8MxYZQetSmikGKeI4K7iLh3CqezI0O8mPp59atXCsCVALkswULmO5AojDBaNDCgpeCnHyDkwYqG9ilHLM3IAxNbxBMyDrtrSjEZLMsTLHUncnxJ8dBXJnVehjiHIAPX61ePZrFTh107SkrPqPQ15nw92vXFLnQSVXyImOW9eh+ygK23HR/qo/Kmj2SzRcVTHRsM+p07zW/dIu/aPpWEsa0Ep2zNRw948gBUJBO5orJUbAClckg8WyEJW4rLoDKQDHLQ7GO6keF46huXFYhVWIkgDTQ0rkOsdpsdMaHe4c0GIjTrPOk/E/aOzbYAMXbYrb7XQ77T660pxXF8Tc+BBaAMgvq3jHntFdFSl0D6rss2JuALLPkHUkD1NV3Ge1FlIVBnJ3iYB+pNKnwDOZu3Hc9+g8Klt4dUnKoH8I117zqa0RwSfZOWVLoJ/+J2/+nf1/Kt0NI/U1lV/5l7F+ZnsdaM1uhnvEzkiObt8IjoBq3oO+spoNYwSApiGPa0+yASRvsYg9xNeU+3OIa77z3YLyHOYCEVFOQkGO1J6T8APKvScZhAQHcl8pzZT8MQQf8MaEiZ1BOm9U/ituMO7EgyojuUZxHmHB8SahldFsas8KuLyqOKnvLBI7zQ1w1o8Ehlh8OCubeabcKxBSQDmHPqKreFxbIdIIO4O39quPBGF1A0ZQSVA325zHp3UrTehlJIfYHFyNDTNb01ScRjhh73u2ESAVIMgg6ajdTIIjWnOH4kCKk1RWMrDuILeP+Xl7y06eApWnC7pMtqepP0HKmtvFg1MMWvWusopNdGuG4AJ2iZbrV69khmR/4l+h/tVLwhe8wS2uZj3gDTmSdAKv+Cspg7OVmBYy7E82gbDeBAH+9MnRDJ9uxkUqG48TETymkuI9qrZJVAzmNMik6x06eelIMQcXdMlgg7zJ0/cXTYDc0yjJkbii33cYgUsXAA+In7PiKrXEfay0MyIGd9IABIJzDp89htQScEUznd3ncFsqn+Vd/Mmi0wyIIVVUdwA+lMsXsDn6BW4riruUZFtKGUsxMMVBMgJrGh302pNhsClxmLgkTMSRMzvFP8Rojfwt5aHvpZwxYzSY0Hz/ABoqKU0hlJ/E2TWsKiaIgXwET4ka/OtmO4+YMbfnRLESNDvEQZJ8BrHeaBxeMVZgdrWZjKPlv9PGtDnGC2Z4wlN6OcTeCDUweh3I8DsPGuAFYBl237UEnr2Ry8qFtYfOczloOwjVvE8l/WnM1QCICZVkCG0J8tIFHG5SfJ9ehsqhFcY7flkWZP0rf91aqfOn30/0/wDdWVYznqdxgTHIbxz6D8/KtOWYgAQBqfLb11/lqdBE+P4Ctga15xuAsfaPu3ObXI8ctcpik3FeHr7i8kQmQldpHZ28NfrVgxqzbcdVYehoS4mZTI0ZSpHTQwPkx+VSyKykHR8x8Xt5brg9TS24Ks/tjhMl0abqJ8df7fOq24qsJXFME1UmgejMBxO7YnI0AmSCAQSOcH8OgoQ1yacQmxmLe6xdzLHy06AVYvZvFFxladDAPXnE9aq6qSQBqeVXTg3D8qbTtI6+fLxqcq6Y8b7Q6TCTzqVcLFc4O8RuZWYk6MD0ccj37GDExTQCRUuLT2WTTWjrhSkOqqxRiYDDcTp3VYjwlG1uM90j/qMSP6f96rNt8rAjcHSrPf4mQAQo1ggyY9K0QqtmfIm5aCVtKohQAByAAHyFaI/X62pW3FH/AHY6Za7w/FTs6iOo0PrvT8kTcJBjL3z5a/3qMoYO3dv6jnU/aiVjXadvGFifnUV+4FQliQBvlgTryjafGmuhO9C7ijFLcGJbsjXXXUmOQgUvweKCHWYI5d3nrzrjH4jO06hQIAOunjS17vLXSs8pfbkjXCK48WN8bxQxlSQDptqfChMPhM3bZ1AUg5d48RzPSJoNcSoPUjYbmdtAKEw3End4QGScojnOnyNcpLlb2dKFRajos4cAF5kT1MnWNTpHpUF0EqW+FZjWCdvsggD5CO+jWwig6uCeigEzG2gIA8ZrHwZUQAZ30Et9TH9Q7q3JnnCn33/3f/5/lWUz/kf/APLc/Kspjj1Ksqr8Y9srNpf8OLjTqJKADrJHa8qr/E/blns9iEYntAZpC9c5gQT01/HCbD0O/cVVJYhVgySQB8zSHE8fsJpmLEgaKNmGxkwDpG3SvNsTj8RiMnbe4xmAJMCFHl9ramn/ACu88MSE7MGdWkb6c4EdKlJ7KRS8lU9v0DOGGmpIHcTpr4GqM3OvT/bjh+RF5wBr4Ej8Qa8yurBP62/2NdheqHyq3YIa5rt967wtnO6r1OtWI0M+A4LMcx/l/Or3gkAEUBwrh4AUfIdKtWF4eAJqTdloqhUuCYSyjXXoZB5Ecx3VNYflt3fgJ38N/Gn1u1FdvhUcdpQfGmS1TFlraEot7GmaWy9rLzVtPKDHyPpXDIqtlJ0M6HcGJ35ggH9GicEuUsJ3hh5aE+q08IpOvDEk7V+UC3E51C2lFXvjI5bjz/RoXE6CaWeho7GvDbgZMpXMRt3A/vRpz+dLfaW7kyW1CqIzFVA01IAkedE8Ec5wojtAjWeXa5eFJvaRh+0PlIgZQMsRookad80XK4k4xqYsxN1wBlPjUHaIkk/IfoUUqZqn9yOdSo0oUe5zaMJBHPnVk4Jw5kAf3csR8bwEQdd5JI6Duka1zwvh4uEkoxQbRoCddS2mg7qfYkQqoEXbRSwAAnfKqknxjxNXxQr7MzZ8t/VAC4orKpBG2ZECKTzgnMW8l8Sa3iMUwEBSwHx3HfsjwXWT5Ci3sKwAKsx+6BAj+aAR4gio72FAiVQDZc7T/Tr6AedaTGJTxW5ye1HLR/zrKZ+6/ftf0D/urKNI4B4f7H4loa5ktqTrJzN5KvPzFWDDezGHQHPmf4c2YgLppMDlzgkju2qxvb6g92gJ8ZOkd561HdhBrr05yOnmYjavP5M20L8qoAqIAvwgKAPKBz8q2loqxB3In5aEf+WjCmSWYCSOpYgdIjTblpQ91wsPzB7ttjJ8YPlQChH7S4MNZ7ewC66bSF06/F9K8g4/hQj5horAMB05N6z869x4hZz2XAMko4iNZysNOmsRPSvIePxdUsvIggRrD7iPNfkaS+MrKr7RoqDL+VNOAWZJaNiBS1hv4j8vwqx8CtAIvUknymB9D6VZvQkUXDhFrtL03q1qNKQ8KULr5fSnDXqi5bLJaJQ1SK1Bh6mRqopCtEfEMJnAI+JTp3jmD5E1Dw24ZAPf9P8Aaj1NCXLeVg3KQfWapF7RKS0ybEpz6fQ/3n50txz9hu5SfkKduo57bGq7xQlUcHkGHpRyxpgxO1QXwhzmQ7GR66d3WguOj/xLq3LKOX3F6ac664fc0FR8eJN7OSSWRWkwOq6BdIGWPKp+BmvtYMoy+FGYCx714iVGrb69BI258xtQuHWabYDEJZVmZXYsYARXY6CfsiBvuSKMFcjsk2ojV8IuUB8oRdlGg8IEk+lL8bxZfhRLrRytoVX+ZuXmfKohxlXJyoy9QSueP4UFxx/pqUYcN2ir6aqGEuf4TcZiPktal/TC2C2LuJchAyWgRIVSrPHUmCoHeFJ7xUd7Cvmy2rWePiu3GJDHukkuPFiO4VI+OdGyyltSf8u2Pe3m73acqnxOlc47G3Cvai0p2DMzO/giAE+G1MlsDZJkxXW36flWUu9wfu4j/wDXFapwHp2IuBF0TNHXQDTQ7x686F94w7byJmFLGF0I0J1178u8CdSZcQVKhhl33O8byukjaZEExv1FS6SDkQwIl3IkEk7JybbQwTppXmm43ZRAM7ETHxEjfXZNp313oexcVw+kjUZnIEk8p+xMjv7q6JZiQyM8DW4/ZVecBeR/hDd9axOKAcIOyT8Oc5SQB9lNDH8PpXHA9pgi5Xy5tRlXMY1iYgnWOgFeUXbYVvdkR2Mh6kI1yyPllPzr1rD4ZgwVAsRJhSAeRhtAANNxOteZe3OGNu5cI3zsBGkZriXNOvxn50su0imN9lIx9sqzA78/TXz386sXC1+EfdVQP6Ry+dRe09hc+kA8u/VyPQCpeDsDlI+6gPiqhfwNFStIZxpstuBvEQDz2PI/kabI9I7O0cqYYe5oKVoZDGa6R6hVq3Ncmc0Go1buLmEUMj0Qj1VMRoJzTrVb9p2ygn72UfNgv0p8pikftdbzWgRupzfyqVLemvlVpPlGyMVxlQHw59qk4r8Sfwn6z+NBYF9BRWOecnn+H5GoeC3kkwlS37bmIuBV5qUDgnqc3ZFRYaj7F60ks6Fm0CwpZtZ2A8PSqYn9iOZfU1Yw1xhBxTBfu20tg+WSY86OW2FGVEdp3ZzlJ8W3PlFcPxG6R2UZByN11t/6AQT/AFUuvNdckPi0UfctSzeEJH+omtFsyUgz3bWvgsgdTKWlH8TvLHymlz31U53vprpkw/Pua+xzHwB8q4GFsof8lnbkbhzsf5AYFdvxQIdcivyCJmfwCqdPNhTpAZz+0v8A9Ef0XT6xrWUH/wA8vdL3yT8qyiA9FwuLa83ZtuEG3+WFIIGsSVA20kt5UU2QEqFzRpocqSdwWAAPOfiI6Ur4nxRsGty3bt53Y/8Ah0AJLM5+CByVsx1I7JHjTJLlxbaG7kS6UUuEzMM+UZgo1yrMwZ2ia86S9G5HT32ChAADGuVSVA+6pMZvLXuqAYIQXuOUGzMSqloECSkHwGnhUlq47HKBlkalgzPHeEIInlOXzqUIoIYAs0dnNyHdplQd49TS9BIsNdVUZlXKqn/MeFmf3Rr03g6bdfLfbH/EfOQdbqGdBowjYbTkmO6vVXt5h24JUEgCAojWADMHkTv4bV57x/DB3BOmdy7HkqIC2nd2HjuaknLaLYo6bKJ7UJCq32iyg+VtZ9Sa54Jqk9CRI3XX1Fd+1l8N7sDQ5WcjoXYR6A1nsoZDDo34T+dNG+KOl+iz4V2gbMOo0P5US92DoI8agtIBtpRGWuOTCcJjgTlbQ+h8DTCkRt0dhMXlhXOnI9PGhR1h4MVMj1GwrSmmTOaDlaaHx6kAMBIWZB2gxIPcRIPjXaNU6tVIsSUSlAhWZV2DHL/CdR6EVMLmYjnpGvjNF8b4UULXU1Q6sPunaf4dvCleENB6O7Q1tKCNMwPLVSPmRP1oyzwt8QwRHNsSM5zOCw2UErvudNBJ76CsNXHF+I3LNpjb+JoXN90fEWy/ajLoOuusRTxlsScVWzHvYDD5ptvcdXdO1BDZHZc+8Qcs8zrQb+0buctrDIByXtv/AKVyj0NL8CuGyJ797hiY92AWIJmCraTPPPzp1dZSSlh1w6QpTMUV7quisIe4wQNqykZgQRpyqtmVx9A17i11B20tISPhUEsfFQY+etQ2zjbo7CMiHnAtqR6A1DicZcwzFRZdHOz3pZz3poEjv7XjSbFYx7hJdyx/eJP1mKbmvArixt+zt/1LH9ZrdIZH73pWUflBxPeXw0LadBlNtwRECZBRgYHOdaLsWviJUgneSx+UnTypm9hSCOpnzmedae0PCsrRqsDywI1+ZJ+czW/L6mgMXxNEAYsMpzBXmUJB2LjQagjXrQ2J43g8uZr1tpEhQ4cnuyAnXypNDUyTimKXKyrABGVn7h9kHmRr3ATVA4m4dHvuSqk5LaSdUAI101+Ea/8AdR3F+OC6YCuVPwog7bKNYEaKNpM6dNJKbi9q9eyllVDoqW01S2J0Ab7bzBZttY13EWrbZojpUU3GsX945+0yKvcozf8AZXPsndy3GWdwI8R/vTzj2A93hkIjtszoPtZFRUE/zO586qfAny3l86rH8sST2j0azrRAFDYYzFFgUAmZaidKIBrlhXHG8Ji8nZf4eR6f2pkRQGFwedgSOwNz1j7I699NXXWqLG2rQryJOmco9T23odlraNSpjDBWnSq/xPg+Q5rY7HNR9nw/d+nhs6tvRCvT9oRqmVOwaIZlkFyuVTLBphhsV01kzyoviPDsvbQdnmo5d47vp9Fl25GmTPPLXKII1br3DnXQX2FnL6sBsYQFmSyhZM5KMROVDsCW0kDQ9450ZikQWxlC3GtEh1Ook5nVSRyj3/mO6iHt3Ck3WypE5E0kDecpmPOKAwuK7TIqBUdSyAKJZrX+IczTzQXFj94VoMt2xavH8QilEyIhIJti2htkazKPIadNSCe8VEmPwz6XLBRvv2NV87Fxoj+F18K4OBdnZQGYBiJJMRy0O2lbbDonxuFP3VEH56/Su47By0Efs2G/69vzs4mfOt0H7+z0b5mso8X7Ba9Fw9gvat3drbEIgCi0gkpuxYS2pc6GZ6x3+o2cSGGqkaA67EEfrSvlxLzlg2bXZQup8APwjWvZ/YrFXzhhndhcUlcjn3iFSZBIMFCBpCtGmomoSi+0abT0OX4FZtW3RFYI7l3HxkE7QCJyjaBrHWKRHhmHJKtcu5jsud4JHTKQxEdCIjXvsi8RZR/iW2X95JdfQZh5jzrpnS6mmR16GGE/ganQ+0V1cLaSWFpAvMKp7R2Bcse2e7tUFes3LxK20OYgqXaAEB7LGJ5L2R3k9Ksq4ASCQqjuknwBPw+VHIioIVY6AUriMpUeS/8AEXCm1bUAkgAW5jnAZtOkMg+dUDhmlxT0M16p/wAVVAw2HGhlnZj3sUY+OvpVA9msI7NcurBNtQxXmQXQSPNl8iaeKpUdJ27LjgnGUa0zs2Xb4VJ8tPntTHB2QuxHlr6ijgaZY/6I8v8ABZa4a5+IhfU+mnrRdrhyLuCx/e2/pGnzmigKyelUjjiibySZoiNBoOQ6eVRlaky12EqiQliXGXWS71UqCR5kSPlU1u4rDMpkfloa1xy18D7fYM8tyD4DtVNbtoqBUMqoPaBB6kkkcyZPnUJQbk2aI5EkkdI9Eo9LrVwMJFEI9STKtB6tpSzE2Ut5njTfUgKvlEnwoxHrMTZV0ZGEqwII7jVYunZKcbVFN4rx9SuRBM/ExnXbQDypLg+JZLiXYnKys2xJAPaUdxWR50dxXg64c9okqSchO5jkY0BEilxuoNgKv2jJ+WMPaCy6OUUtALIdSAxQwDHemQ+dAYbBc3IUd+9OOIP72wlwbm2uaPv2mNlvmnumNJ7Cidix7yY9K5b2c+xl+zYf9D/31qhvdn7p9a3TUKeuXuB4eyR7uxaQRAyog8pAk1E9sr8IA8AB86e4mHUgb7jxpQ7VBdGiRljGg6EQfT+1S3cKjaspn7wkHyZdaWX1jtcuf51tOImzrqyk/CI36idtvShKPoMZA3FeKmy6W1YsHgux+IKSy5VKjMJKmTuBt0M3su11A6PBAMKCSxXUz29zOh6U6d0vAN8RjTQSPE9KFv2jbOYDMOaz8Q6a/aHfuKRKuyneih/8TMM1xrSycoZogiO3lnTuyz863/w89nj7pbrJ2buHuKTpqTdldN9kQ/y0bg/aBsTi/dXsJ/gKSA76MrL8LASMyGTyPxjlM3i0VAhQAO4R9K6jnLwVPAYQooQntLo0GRPcTy6UbTDHYXtFhGuw2M8/WgGEVSL8E5LycMa2taNdKJqqJEiCuiVCl2MDrUOJuqi5mMDkOZ7lFIsbjGuHXRR8KjYePU0kpqI8YNmY3Gm4YGiA6Dn4nvoVJBkEiQQY5g8j1FaNZmjWs7k27ZpSSVIlsXIceGveCY28cvr1o/C4gOuYdSCOhVip8pU0kRjmLeX+q3+Ob5VHbxTW87LuGOh2Oa88D1qssdxXskslSfotCmiLdzrSXAcVRxImJIM8oJB8pG9M1Yb1FNp0yzV7RnEsCl5CjiQfmCNiO8V57j8G9t/duoBWYKiM4JkMTz/CI616Vbeh+KcOF5NDlcfA43B/EGrxkQnCyq8MtBcOQymBcDmZ+C6vunBkfuWyP4qWWr2QZAgLglW0Y6gwTyHKedN+IlVuphdYKLJOrNdKEhs7awXAUARo3hCfHoS6um1xAx6Zl7LfQH+aqxIyWibJf6L+vKsoTIeo9KymEPchcpfi9GnkfrXfvKiuHMCKgi7BnahHQHsnbdT+t6kZ+VctrVKEslsSoygnlqNNtf0KJTFlhlffn/al5YxpuPr+vrXIdioaIP5ciOR2+dJXsezWNsiDPwySWA1TT4wNcw6iOh5VJwrivaCORP2TO4025ncCanRsw6H6H8qTcRwMSyaLPaA0ynyI7Pd+FBKv8Gu++y0Y8BkqqXcU6kgMfOD9aZ8Fxjujo4JKR2uvqe/foeklPjzDGs0nU3RoirgrOG4lc6j5Cuf+Y3fvkeAUfhR1ng6lA7P9ksVVTIUJnBzbE5e0Rp0BLaUvfDgKhzCW36DvMa6fOnuXsTjHwiJ3JMsST1JJPzNaFS2rOfKAdSzCI6AEfU+EVJ+xNp2htPfrmgDqTkaI6cpoBsCd9YqN2nwGp8uVQhHzvMZQ0KQd4AmBy1mpLhjsiJ0+fIfj4A1WEPLJzn4RmeIB6knwSST/AFGlvv8AsM51E547lBuAeIdlFTY1wFfXSMinn1cz4f8AlqB1GVVPNlzDof8AMP0QVayITgQbdtE+2Rr4nUn5k1ZOH31dMynSSD4gwaqruZJG/wAK+Jp5hrgsqigSNAR16nx51OePktdlIT4vfQ7UxRVu5QgYMoI2NYhioRb8mhpGuL8IS+FaclxCCjhcxUgzESMwnWJ3qp422EDoUzGxdLQdijgjxjVG8qu9q7Q+PwKOGbKJKlG/eQzofCdKvCW9mecbWjzr/mD/APTT+hfyrKu2fCfawtpm+0fdW9TzPw8zWVemZtlmNZWVlSLAeK3rgVlZTroRm+Y8Pyrpftd6/Qr+Z+ZrKykkMiOz8Qoh9x3gz31lZTMHkQYA5eIOg0X9mYx4XlA+p+da4h8RrKysUv0bYfkBzH4ZMdJMddvGsFZWUTjhqHuOduRbb51lZTR7El0TLQ1ree5j5zE/IVlZWozAGI1Fsdyn+phNbbb+d/RyPpWVlAJLg/jXxJ9KY4r4xWVlNEDGvCXMMJ5j8aOetVlZsn7Zpx/hHdqikrKyuR0jfuV+6PkKysrKcQ//2Q==</t>
-  </si>
-  <si>
-    <t>paly</t>
   </si>
 </sst>
 </file>
@@ -106,9 +106,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -136,6 +136,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -144,14 +166,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,54 +188,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,6 +203,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -234,6 +219,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -242,8 +248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,13 +258,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,187 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,8 +469,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +505,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -516,26 +525,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,12 +552,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,127 +589,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,24 +1042,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="29.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="23.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="20.6363636363636" customWidth="1"/>
-    <col min="5" max="5" width="24.3818181818182" customWidth="1"/>
-    <col min="6" max="6" width="13.0454545454545" customWidth="1"/>
-    <col min="7" max="7" width="13.0363636363636" customWidth="1"/>
+    <col min="1" max="1" width="29.6388888888889" customWidth="1"/>
+    <col min="2" max="2" width="23.7314814814815" customWidth="1"/>
+    <col min="3" max="3" width="20.6388888888889" customWidth="1"/>
+    <col min="5" max="5" width="24.3796296296296" customWidth="1"/>
+    <col min="6" max="6" width="13.0462962962963" customWidth="1"/>
+    <col min="7" max="7" width="13.037037037037" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="27.5454545454545" customWidth="1"/>
-    <col min="10" max="10" width="47.8" customWidth="1"/>
-    <col min="12" max="12" width="17.9636363636364" customWidth="1"/>
+    <col min="9" max="9" width="27.5462962962963" customWidth="1"/>
+    <col min="10" max="10" width="47.7962962962963" customWidth="1"/>
+    <col min="12" max="12" width="17.962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1100,53 +1100,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>113</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>114</v>
@@ -1155,7 +1117,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -1170,19 +1132,57 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="dat.lethanh2@ncc.asia"/>
+    <hyperlink ref="C4" r:id="rId1" display="dat.lethanh2@ncc.asia"/>
     <hyperlink ref="C3" r:id="rId2" display="the.letien@ncc.asia"/>
-    <hyperlink ref="H2" r:id="rId3" display="https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2RW5KbGMybDZaVjkwYjE5bWFYUmJCMmtCcWpBPSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--79eee5883893a012786006950460867831e6f661/nccsoft-logo.png" tooltip="https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bk"/>
+    <hyperlink ref="H4" r:id="rId3" display="https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2RW5KbGMybDZaVjkwYjE5bWFYUmJCMmtCcWpBPSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--79eee5883893a012786006950460867831e6f661/nccsoft-logo.png" tooltip="https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bk"/>
     <hyperlink ref="H3" r:id="rId3" display="https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2RW5KbGMybDZaVjkwYjE5bWFYUmJCMmtCcWpBPSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--79eee5883893a012786006950460867831e6f661/nccsoft-logo.png"/>
-    <hyperlink ref="L2" r:id="rId4" display="http://ncc.asia/"/>
+    <hyperlink ref="L4" r:id="rId4" display="http://ncc.asia/"/>
     <hyperlink ref="L3" r:id="rId4" display="http://ncc.asia/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -70,7 +70,7 @@
     <t>Inter</t>
   </si>
   <si>
-    <t>https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2RW5KbGMybDZaVjkwYjE5bWFYUmJCMmtCcWpBPSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--79eee5883893a012786006950460867831e6f661/nccsoft-logo.png</t>
+    <t>https://ncc.asia/assets/images/logo.png</t>
   </si>
   <si>
     <t>We do it with passion</t>
@@ -136,47 +136,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,8 +180,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,61 +247,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,25 +272,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,157 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,8 +469,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,8 +517,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,9 +540,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,23 +563,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,127 +589,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,8 +1044,8 @@
   <sheetPr/>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelRow="3"/>
@@ -1122,7 +1122,7 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I3" t="s">
@@ -1180,8 +1180,8 @@
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="dat.lethanh2@ncc.asia"/>
     <hyperlink ref="C3" r:id="rId2" display="the.letien@ncc.asia"/>
-    <hyperlink ref="H4" r:id="rId3" display="https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2RW5KbGMybDZaVjkwYjE5bWFYUmJCMmtCcWpBPSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--79eee5883893a012786006950460867831e6f661/nccsoft-logo.png" tooltip="https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bk"/>
-    <hyperlink ref="H3" r:id="rId3" display="https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2RW5KbGMybDZaVjkwYjE5bWFYUmJCMmtCcWpBPSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--79eee5883893a012786006950460867831e6f661/nccsoft-logo.png"/>
+    <hyperlink ref="H4" r:id="rId3" display="https://ncc.asia/assets/images/logo.png" tooltip="https://ncc.asia/assets/images/logo.png"/>
+    <hyperlink ref="H3" r:id="rId3" display="https://ncc.asia/assets/images/logo.png" tooltip="https://ncc.asia/assets/images/logo.png"/>
     <hyperlink ref="L4" r:id="rId4" display="http://ncc.asia/"/>
     <hyperlink ref="L3" r:id="rId4" display="http://ncc.asia/"/>
   </hyperlinks>

--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6950"/>
+    <workbookView windowWidth="7870" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -64,13 +64,13 @@
     <t>NCCPLUS VIETNAM JSC</t>
   </si>
   <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBYWFRgVFRUYGBgYGBoYGhwYGBgYGBgYGBgcGhoaGhkcIS4lHB4rHxoYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHjQhJCs0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0ND80NDQ0ND03NP/AABEIARoAswMBIgACEQEDEQH/xAAcAAAABwEBAAAAAAAAAAAAAAAAAQMEBQYHAgj/xABFEAACAQIDBAYGBwcCBgMBAAABAgADEQQSIQUxQVEGImFxgZETMqGxwdEHQlJUYpPwFSNygpKy4RTxJENzosLSNFNjF//EABkBAAMBAQEAAAAAAAAAAAAAAAABAwIEBf/EACERAAICAgIDAQEBAAAAAAAAAAABAhESIQMxQVFhIgRx/9oADAMBAAIRAxEAPwDSLQQ7QWnacNB2hEwi0a4raCILu6oPxMB74DHQIgtIB+k2G3+lHeA59qi3tjyhtlCAxPVO5wLr48jAeLJO0EbVNooNcykaagi2sdExWJxCnVoQhiMVB5YMs6EEVjoICCHBAAQQrQWgB1aFaAQzADmC0MCACABWgtOoUACghwQAMRPU7twNu02hZpCbWL1H/wBMhKhhndwfUQWBRfxMdO4seEVDjsSxO1alZ2pYQDqnLUrMAUS2hCD67du4RGn0fpoc1V3qvvuxLN4HePC0nEpJSRUpqFA0Ue8mQW29uLRVgozuLZydFUndmI3t+EeyC9sovUTnHVsLQHWooSeaKxP8x3SsYrbiI96CJTz6MEvZuV1KhfG19eMgtq7Zao13fuG4eQkHiMbY3Jvrffuicr6KKNdkvi8SzPqbgcBpru8NJcsB02yIq1EzsqhQVIG4WuQd57ZmuGqs9zz47rR0lJgb3v3RW0NxUjS8N06uwDUbAm3Ve7eAI+MtuDxqVBdDe28biD2iYajsDe9v1xkvsrbD0HDqe8G+Vhya0FL2ZlxJ9Gyi86UyC2H0lpYiyk5Kh+qTo38Dce7fJ0LNWmQcWtMO0ICdWgAgIFoRigEGWZsdCdoAsUyzoLHYUJWgtFgsPJM2axG8EX9HDFOPJCxY3tBHHo4IZDxI2p1deHH5iROyF6r1m0NV3YknQJTPo015ZVzfzmTVVLggb7GQGy6d6NFN3Uu455LAjxbfzsZsxHoX2jimRC49dyqUwR6uY6Ejuux7rTLOkG0QWyKTkS9tfWJ1ZyeJJ4y69Ltom4UfV0/nYdbyW3nMux5LOR+u2Zbt0X41SsbPVZt2nhGhQlo9Y2BA4e+CjR4wWjUtiNB29VR3x1Y8z5yY2fsFqhBAsDLBS6KAf7TMpI1GLKYlY3s1wefuvHeGqZgQdCN/wPdLJiuizW0PskK2znpMC43aX3gqfqt2TFm8TnDYkobHgd3FTzXlNS6J9IhVUU6j3f6rHTP2H8XvmW4mmL2P8rfBu33wYXFNSYHUa6jkRFflGZRT0ze7QESv9FdvCugVj1wL/wAY5944ywyidnPKNBqZ1eJQXjozYrDESDw1eKh5Cl4Lws0EVDyDDTsGJwCFDTFLwTmCILGlpXqdX0depSUZmc5qY+qLgu6k/VszM1uNzbdJv/Sqd+Y/ztbyvIza1FBh6thly5nUr1SrjcykbjKGI0UDpHiAXexuqMwv9pvrN4m/gBKjUW2Z+NreOv68JM4026nIC/aT+jI3EqNF5an4CSUt2deNKiOenw7vM/oSb2Ls/Ow9siwMzheep8f8S8dHMOB5wlKhxjZY9m4UKoAEkQgidLdFxMobEXpyJ24aaJmcXJ0UcWPISbdrC8qNeoWqnEVdES4pqf7j7/8AaAEPW2JVyF2CqDuTW4Hed3dIhhk0YZk3fiTsN+ElsZtGtiMxptkANluDdyCBYAbvWB14X3Wjw7AfJmJu9ute1m5g/ODtAqZG7Gxb0XDI2l7qeTcj37u2a7sraArU1deI1H2W4iYoEai2t8hNtd6nirS69DtolHyFuq9u49vePdHGSTJzhaNEDQjCUTqWOXYVoIcK0YgXh3gtCiA7DzoPEwIcVDsUzQROCFDs5WQ/SAgUKl9xB/uA+UmJWem+Iy4YrxdwPC1z8I3pBBfpGZYl7kueZI9w+PnIirXvc8BoO1jaPMa2thykcBmGm4MB7RII7WxfAG9fxPs0l+2EOHaZm6Vcla/4j7TL9s/FhEaodbC4A4k2AHmZmXaNQemXFLAXJsO2N12xRLZFdWPYb+0SAbZb1V9Ji6jAHUU1NgvK/b3axqmIpI5SgmYjflIuLAnVmIF9DpfgY/8ADP8ApdFOaQu19mF7AW0YEgi4IG8W4xbZddioazC/BrXHkTJYDNrBb7Dor+A2VkOYjXt1sOQ5CTFOjFqgsIitYRt0OKsh9sbLUtqLhwQRzZRcHvyg6/hEq+ymKO1Ik9RxlbiNdCPMec0Gogcp2Mf7GHxlH2nhCmJJH2CfFWI+Akm0UUTU9nYosi5tGsCeR03jsj4GRmzVDUk5gbxvBEdq5GjefA/rlOqP6imefNYyaHJEK0JTAYzIZEK0EMGABWgtOrwQsDi0E7ghYqGmKxCoOsbk+qo9Zrb7D3k6DeSJmvSvaLVHIYjq2AVSSEuQdTxY6HhoBJfHY+rXqGhhVZybekrNa2hOp4WHBBoORlf6UYJaDiihLZVVmZvWd31LMfhMN6Lwikys4vQFuYAHiB/mMMIPW7GU++8fbR9YDgov47oyw7WD9pt5D/MyuizGGJPXPafjLv0VxCuiZtSjA+K7r+wykYsda/f7DHnR/aRpVbn1SQG+cUo2hRlTNE6SLXfKtIEm+pvawO899r275xs/YIVswTKNLLcG3e1gTx33375Y8BUV0DCxuI/FMRRbRRpPsbUKOUWnSPbuilQ6RjUpB1ynUE6jgew8xCWgSsemtmsFtv1vxHZOsStMKWc2AF9N+nIDUmQOM2ilLQbxppuB5dp7I52GxqOGe5JPVU7+1m8Nw7ZNs6eP+dtZdIkNjUnzddcuYXA35ewnnaQW3Eti3W31NO9ut85oKICbyv7WwAfEZvsp4kliR4ayUuhRach7sV7p3E+R6ynyMkyAZE7NORlB0DKUsftU2I9oI8pLhbTp/nl+a9HD/VGpWvJwlxp5f5iwnBInay7OWgWh5YIZgMK0EEEADgggiAY4DAJRQIg72OrO3FmPEkzLullfPi3PBTb+kZB7QTNZrvlUnkL+WsxrbJOck72VT45R+vGZl0V49u2V3H1bXPaT4DQRrS0KryUk97G/yhYx8zWHE+wbpzSbrk9tvKZ8FvI3xQ184MHYnKfCd4odaIU13zS6E+y/9F9rvTGRw2QcSPV8eI90vtLEBgCDcGYzsLba0gVqhjrcFQD4HXf2yT2d03ZKhzJ+5J0UeunaOBvvI8u2VOyilGjUKjSJr+nN0p5VFtWa5btCqPeTHGzdrUa65qbqw423qeTLvU98e3EyyiaWyv09jspvpf7RJJ8NNJN7KplNw7yd5/xHAUQy9oJIo+eTWJY8GwK3kdj0yYlHPqupp9gbePMA+Ud7Kw7AZnBF9wO+3MjhHdeirgqwuDpy8QeBHA9klPekYTpkXjaNnte2ch0PKootb+ZY+wlbOgbcdxHIjfGVi37itfMNUfdnA3MOTjiPnOMPUdGOYXceuFGlReDoPtDiO+b43izPJHKP0l8s5y23TtHBAINwdxhzqTOBqnTCWHaEYcDILQWhwQAK0EOCAETjWKUnVzcBHIY8QEO/tmU9JKTLSp1SLekDoNb6UStP3CbFjqIZHUi4KMPZM36R7Pb9m4ZjdsjNfd1Q7sP7svnBleNmYFuuOzXxi1NfVP4oilM59efvj16dlX+KZKob41NTGi7++SGPXrHuv7pG1N4guhPsTZdYtTHDyib750pt3RiR0UZDnRmRhxVipHcRrLv0O2/UqKUdyzrxNrsp3HttulQYbx2Rx0YqFcQrDkQe64k5K0Ui6Zq61X5+yL0Wa98xuIjhzcAxyiznpl00W7A4oOo521747AsZXNkV8rWPGWINrFQpfAV8OrizAHiOYPMHge2MsVhWNgbm2qsujqedtx/WkDY61fJwsAe+SjKDNIy7VFdWs6Pbex3qeqlQ80J0R/wm1/bJLDYlHF1O7QgizKeTKdQY5q0wdGAI7d8i2ogVBckHg31gPsvzHI+46mkZUYlBT+MkbQwImjG5Vt48iOY/WkVy+2WUkzmlBphWgtOiphRmaCgggjMiVX1T3GVvFYb0mC9Hxeico/EWDqfAkHwk/j36jAbyCPPfCwlEKiL9lFAv2KBA2tHnmooLq1rai9+HWtOqvqL3n4x50hRUxdZUN1Fapa271gdO4kjwjRtSi95Pde/uiovYntBdb9lvZ/iRL8JMYjrAnt+BkYKJawA5e8xiY3qzuihYW8pP4HYTuwOS/HrKQPE/KWGl0dVSlwMzsDYC1gupsOXCGLoVqykeifNlCm408pYdg7JKkuw1I8uMs77HVHJy2Daj4jz98cGkFFhJyT6Kxrsc4FiFEkqbAxphafVjhVtJY0UTHNNtdJL0dokWuLyJppxEcKsVWOzhqhz5uN7y14WpmUHjaVXJrJXZmJy6Hd7oNA9od4vG26q+tuPZGWFP7xeN7+6HiFAJN+M4wtUZ17/hHGIukSeKSw6ptppyH+IQrCynsMLaL7u6RdfGKlsxCi287gfhfd5Tai1snknol8PiMzHlraJ/6rW0YU6xUEjkbeUapXLanjNyi70Yi15LHmEEhFxJhTOMvZqo+h7iU0txaw7r8u4XPhILpb0mXDUzlF3dT6ME20tbPbeEHM2vwvHm39piihY20GbXVVF7AsONzoFG8jleZNtxXqWr1nI9Ic6o+rumtncjRV3BVHlbfRsjGNkFTBJLnuW/EnUt5zqqcmvEjKOwAanzgRizXt1Ru5E8Jw/XcDhu/Xt84FBVUOTvHwkn0cpEPbJm42tv/V40q2vb9cpbOj+z2TJVPO5/hIsYR7CXRLYdqhWyUCDzcqq+wk+ySOA2cQc7kM5HAWVexeySKpO1E6KOfIb4jBB0ykbjcd/+YwTZqHXXzk2sjcajI2dfVPrDkefcff3yc4+SkJ+AkwYHExzToIN4J8be6cU3uIpeRcSykPcNh6TCwUqexiffFG2aBufzEYI9o4XFNzk3B+Dakg2wzLyMbljFqtc843vNRj7FKXoJnJ3xxs1LuSTYAfr3RAxzTWy256mVjGyUpUjuu9yY0xtEOtiLgix7jF2gI0l1FUQcndjHAVCBkY3scvjw8CNfZBRbS3LSLNR1vzHu1B8Iiu89598lPSKw2KZjBBBI2UK70/xY/wBQlJxemCKrqDq4W6hOwHIRfhnaUPaOKfE1WqVDvO4aCw3ADgoGgHKS/S3HtUrVKnB2K0+AKp1LjsLBz4mQadVO0wbFFaOKrgA23AW8x8veIMBTsC57h/Ef8RBgWbKO8953CPBvVBw/RMLNJDzZWDNSoBwvczRFpgLlA0taQnRzChRmtqfcJPsY4uhNWSOGbMins9o0iltY32Y3VI5N79fnHTb50wdo55KmEIZW+/UGEYFM2YGRo5D+E7uzsMVEcxBqBHq+R+Bk5Q8orCfhnM6E5seIMMSdFLOiZzO1pkxRKYG/WNRbE5I7wmHubncI59EC2m7jEVY7uE7qPawHjNKLRNysPE4XLqDp7pxhtGF/Hukg3WTw+EjEMcW2mmJpJ2hSvQKk8r/7RhXWzH9cJNZ7r4e6Q20XtUA5oD7SPhIzetlYLejiCcwSdlTMOkKsFw6MqKUQIcjq9yXZyzFdASzNpwkZiqgUWG5Rqe3ebST6QVHdC7EAkmyjegB3WHH9b7yuu1wB+I+Nv9odiFcO2RSx37/OO9hjOwPM+yRLuSGHdbw/Rk90SS4HlAZoOzqdlEfERLCrYCLmAUONnaFhzAPl/vHjSOwT9cDncfH4STYS3DK0Q5Y0xO8AghzopkGwCHeFBHQWGIJzBaFDs7zTkvDE5hQrOqTa3ilXfExATFWx2PaFXqgRtUGphIYGmcaY3LQtRfS0iNot++X/AKajyd7+8STpSK2uLVEPNWHkR85HmWi3C9nd4JzeCQLGU7RxStTsiKiqTYgEM17DrEk3+EhXp2APj5yS2lWGTQBQbWA4CIFLoAd4AHyMaBkXVNgCOctPRAC+m695Vqu6x3gyzdBl33+1G+hLs0qiNIs0SoxUxGiOTEFMRTA3O+U9mhlleVmov76j/wBRfZrLMRK8C7I876OCIIZhTqTOcEEEKBkOCckwXjsA4cTdwoLHQAEnuAuZXm6c4Af8/wAqdU+XUiHRZYLxvgcWlVEqIbo4DKbEXB7DqIveAjtDO3Gkgsd0ow1Cr6KtVyPYNqjFbNuuyqQPGTxNxE2aSOUO+R22vWpn+MeeQ/Ax8u490abVS9MNxR1Pger8R5SPKrRTjdMREE4DQTno6jGsYS7hOR62vs9/lEExJ9KbagnL4bvgIAbAkasdB47z+uc5pplI7LsfD/NhNUYOsamVgedx5bpY+hfrHvlertdEvvufZLN0RpEANz+BtF4DyaDS3TtzpEKLaRVzpA0IYNM1dTwW58SCPdeTxMjdlUt78zYR85J0EtxKokOV2zoG8KrUVFLuwVVBZmJsAALkk8BKrsXpgtfGHDqlkCvZ2IzO6EbgNAtg54ndunf0k4xkwLhb/vHSmTyU3Y+YS380oidEhs3pHhsRUalRqZ2Rcx6pCkXAJUkdbUjdzjjbW01w9F6zbkGg4sx0VR3kgTK/o4rBcaoP10qKO/Ln/wDCXv6QKJbA1bfVKN4LUW/sJmr0DSszbE9Mcc5JOIZQeCBUA7AQL+2T/QPpXWNcYes7VFqk5WZizI4BO871IG7gbWhfRfhqbtXD00dlCMpdVawJYNa40+rLJs3oZhqeIFZXdnR84XMgVSSSOqFvlgrG6LWy3Fjx085gm2dlvhqrUalsygG4NwVOqnym93mR/Sen/GHto0z/AHD4RszE0noxg3o4alSfLmRSDlJI1YkakDgRJUmNdn1M1Kmx+siN5oDHIEGIxXp3Wz46tyUqn9KKD7by67T2jUfZOGxFOo6unowzKSDdM1Jr24ZrXvpM42tiPSYis/23dvAubey00z6K8SHwb0m1CVGFt90dQ3lcvMFPA06DdLMRXrmhXKMvo2YNkCvmDKBcrZT6x4S91EzKy/aFvHh7bTLOjdIUa+NWw9LRo1Hpkk2BouCwI3EEhPAaSZ2d9ItMnLiKbUzf1k66acSPWHheJ7CvRaKbGwgidOqtUCpSyuj9ZWFxe+/Q7tbjwgnPgy2aMdp7sx3bhCZeHE7+wcoqlPQG2g3dvznZp8OGpY92/wDXMgRWOhs4vlA4fGX3YOGyIg45VPmLyq7J2c1aslIDrORfsBF79wXWaI9EK5sNOETNIe0t06bdOaZ0jjDJdwPHyjWxPRHbL6T03xT4NFYejVgGOmd0NnAXlvN+NjLCwNjbfY277aTF9q444falSsv1MSzEc1J648VLDxm1U6gYBlNwwBB5gi4PlOlLVHPIxLoNXKY/Dkn1nKn+dGX3sJsO2Nl08TT9FVBKFlY5TlN1Nxrw5eMzTpTTWjtWmUUIA2GcBQFAAKg2A/hM1hppGWzD9hkUNpIvBcSafgztS9zTXtr4P01CrSBAL03QE7gzKcpPYDaY90n/AHWPrsN61zUHiRUHvE2wtyjQSMBxOHrYeo1Js6ODYqpIzDha3rKeE7wGLrYWqKi5kdRezAjMDwZTvUzVE6Y4Rq60utnL+jzFAApuRYuTcLeVD6S6qPiKbI6ufRZHysGylXYi9jobMfKZNWajgqudEcbnRXHcyg/GZj9KtO2Jpt9qio/pdvnL90Pq58Hh2vf90i+KjKfaJl/Tfbf+pr2yZPRF6XrZs2V2624W7o2ZXZqnR574XDnnRp/2LHePr5KVR/sI7f0qT8Jje0elNV6VClTZ6IpUwjZKjDOVAAY5bW3Hnvlkx+3XTZNG/XNcPRdmLFgOuL3vqbC2sLDEoWFxDJmtY50KG4vo2/uOm+Xj6JsVbEVaXB6WbxpsB7nPlIDohVoio6VsOtYMjsuYkFTSR6hAt9oLa/C0HRTaiYfHJWY5KQZw29sqMjBQbamxy+URosHSQegx9drdWrQddP8A9adj/wB4jXbXRhTg6OKoq7u6IaiqMwXMhYvYC6i4A5dbhJr6UaAVqNUfWV0PaBqP7/ZIjYlR0x+CXMwD0aG42DI+HzBTbeAWO/nEwRfuhCBcDhx+C/8AUxb4wSbywTIWYdUuzKiizEKCeCX1Yk89T3BYuyqxFxZABUYbuoATTp9jMoJ73HKHgsIWXFVTqtNPNqtRaXhZWqHxnFXrhFGhquz25JmCUx3AIT/NOc6C7fRpswkPi3HWcOtPu+uw5fZHcZNYlNZOYHDJSRKaCyohUdykDz4yIxI1jkqSMxdtiSyQwCaFuekjxJmkmVQOQ/3muNWw5HSMT6W4ctj8SgGudn8Agc+y80n6Pcb6XA07m5p5qR7kPV/7Csz3p7h2/aFVVBZnFNgALkkoosANTqJYvoxrmk+IwtQFKmZGVGuGJynOMvCyhT4zoRFrQz+k9MmKpVOdNde1Hb/2E0fae0Eoo9Wo1kT1iAWIuQBoNb3I85k/T7bLV8Q1JkVBh3dFIJLNqLlj25QbAecnOieGfEbMxFLezvUCF79YlEIJY7+vx7I0JoqHTHaNLEYp6tHNkZUBzDKSyoFJtysBLH0a6Z4iti6NJygpsCmVVtc5DlYsbknMo421MVwH0ZmwNfEAc1prf/vb/wBZadk9DsLQZXSmWdTcO7FiCNxA0UHtAiVjbRQel/RKvTxDvTR6qVXZ1KIzFSxLFGVQbWvodxEYYLodjHKj0DIpNsz2UKL7yGIOnK021zE981iZyEdl4NKNNKSCyooUc9OJ7SbnxlRxX0dUnd3NeoM7s9gqWGdi1h5y8gTgxtGU2UT/APmtH/76vknykzU6G0Gw1PDM9QpTdnVgyByzFib9W1useEsSiKARUPJlQwP0f4em+dKlYkK6gMUI66MhvZATox4ys7T+jWut/RVEqDX1ro3tuPbNWEBioFJlN+kzDk4OmQLlKgUczdDu/pjvEdH/APicLUzoowwpoQxsXHocgyniwKHSWxqKuMrqrDQ2YAi41BseUzD6WkdaqkZvRvQUHflLo9QjsJAcd2btmX2bRp14IhTOg7h7oIAZZsRwcNjaZ+vh86ntpkPb3n+UxXolhS1WkWFwjUFPHejEi/jaROw6vVrI4/5LAcDrfKfNx4Sz9FUyKWINms403ZHR/wCz3Ccy7Lv2aLg75FB9ZVKtfeSLa+Oh8ZD198mnAVi3CxVu6+h8Lnz7JCOdZrk8GeLydYalmcchqfDdJMxpgB63h8Y7M3xR1Znll+qMn+kXFZMfTekStSnTQkkaZrsVIvvFjbwifR/DV6u0hXphnUVRUdydFSoM1ix/A1gsvHSLommLr0qrsVVEKuqjrOM2ZRm+qNW7ddLb5O4egiKqIoRFFlVRYACWUSbkQ56J4Y4ipiHXO7tms+qKbAGyj1r2v1ryZZQLAAADcBoB4RRjEwJroxdhqJ2NIBE2eFBZy5naLOEEWjAJjE4bGEIgOliiTgRRRASAZ0qazlpDdLdrvQoKKdw9TMocfUVbZiPxdYW5TEpUbjG2Waims42vs2nWptTqorqw1Vhp3jiD2iZJh8ZjBvxVdbi9jWAuCN+plhGKxTf6V/SVD6N0p1OvcNkrA3fmSjqpPGxkXLZZRLhaCFeCbJmf7R6O5cSoRgpdMgUA6XCID5l3twC9olux2ACjKosAAe9Xpmk3fYKp8ZkKbWxHpb+nq3vv9I9/XPG8d4vbWJuP+Jrcf+a/4e2TN2bQj5qQb7SA/wBSj5yIK6kTLMNtrE5FH+prWyLp6V7bhwvEG2xiPvFb81/nMzdm+PRs2CTqk8z7ouTMYp7axNv/AJNb81/nD/bWJ+8VvzX+cvCVR6JTVs2UmFaY3+2sT94rfmv84DtrE/ea35r/ADm8/hjD6bJOgJjI21ifvNb81/nDO2sT94rfmv8AOLP4PH6bE7ROY4dtYn7xW/Nf5wDbWJ+8VvzX+cM/gsPptCLDYzGhtrE/ea35r/Oc/trE/eK35r/OGfwMPpscCzG/21ifvFb81/nDG2sT94rfmv8AOGfweP02dRFJi/7axP3it+a/znX7bxP3mt+a/wA4Z/BUbKZBdLaYNNG+yxX+oqf/AAmbftrE/eK35r/ONcftauyANXqkXO+o5+qeZmJPRSMaZvHRoWwFHsw6j+lLfCQexUth3Xga2b+l8Ow9gaZLs/buKAVRia4XKwy+lqZbXbS17RF9sYgU9MRWHX4VXH1V7Zzljc4JjH7axP3it+a/zglsiNH/2Q==</t>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAWYAAACNCAMAAACzDCDRAAAA0lBMVEX///8AAADtGyPsAACPj4+AgIC2trZGRkbd3d3u7u6bm5tMTEyenp7BwcE8PDxvb2/tDBeVlZWkpKTW1tYJCQn+9/ddXV3xcHLi4uIZGRnt7e27u7vMzMyJiYn19fXzgYTsAAxiYmJ5eXlVVVU5OTklJSV8fHz5xsfHx8dJSUmsrKz0kpTxbG9fX1/tEhz98PAeHh7uNTr2oqTuLDL0ioz3ra7vQ0jwV1stLS35wcL6z9D84OD3trfxZWj5xcbtJCvwWl72p6jvSk/yen385eb719dXellhAAAUbUlEQVR4nO1daXvaOBDGmMNAiAETbihH0hKakjuhabJt0/b//6W1bOu0jhEY+uw+vF+2SyxZfj0ejUYzo1yOx/XXz9332+/fb59/3b3kIHi5+/V8e3//9Pbw+hvUwIjKaFXwvyxqtY5fPBl62XTK9h+UTsb+LLzBojObF1r1TG7h1VeFj34H9frFL1ZLo4Hy0scn15021vkQ68bUdd8+Gfr+/YFrcPu482iHviOi1lKP2BajZi3Vf4i+v+pt32lv5fdlvdaaI8nVd64bEUbRcL9/1XR/1nUb3PVrd/pqGNLqvExxfsL/MUhzHKNct3xyGSarhaL7mOrCVlIdFHWdOrMhf/lL3s2nsXafz1Q3+CqQHMF9utaOqsAN4iP7p9G5joRdiR7NtHRE2KwsO51UzZ06ReZD+SxKMpXoP/JbPMheC3oxWp3O01ykfxhIv2YGtYklByyGGwAfCDZvczAHdjrDLd7knMUCKtXQXWUL9x/N0FQ0twCjXVpQwGF5AeTDcargTidQkh2nnTR5nqpZDnmTyOcH3XvRyLOCZq3W3IIDFhVY55a3gMgFRj9ucqVlOeQtZao9algOr1frZynNlTZwvGNLhhFWFnyAaR7o5pEUYprvtJyFWN8Ld/mtb9F4t6K5lzkLDDo2fEBvMLTrNKL5m4nlfH76mb/Nu2K+JOKstOskNFuwbDdFhRhAvxMMEM16Gy6NiOZbA2cRb5wa+GR8MWs4zRO7IVstVQJLPmA02+j6CIjmV7Mwh2qgy97nyfhilOKcpvnGbsjnFiwvbfkA0WylliMgmgGyLIgzQMusn6A0fxGGdFk8KQ2HpVZRZUfDlxBqlk/nzVV0l4IvkGamWclyezZuhZ0OV9WiIO99tJYD0Tx9oDf6bDBMxNeio5m3A4oBe61iHQtlWaExTk+ERXVwcmlB86m81491fvU0GDJmdUjzM0ya81PaBUiZK7SGQDOnmCVy2pQ8UdPERAz5zFqQ6vbJCq8STTSLH1+EhXzhNMIumn7uDCbM7FoQ1KTxSz5MnuYC83XJ2atIvlEDEwlkfGhIDBYQmguSTmtql9OkmdD8D5Tmxgfc9g+kiUo58+Ok/sO20hGZ9tqBtLNEtc/0XpHg1EizTNsbXACFiObPEi+bArgh7M001HeVoKwZaIrnC/2DRZC4zobGRkMDzRLbc6a7PkK41u/nroCqmZnUQBZg3pXfVE7zQjvQsni52TGcVsxtkMH9Rav401/Iie5yjKEDMIEJb9jDD7NNbGjWyXJOIkQF45Ol/J425rYKpdTAwWvSeyjLdMFtXgNGl8vvJ6O5bxqk6P0xao2U+ywLltOTKtwz+x1Mc+MqaQJYnUCnwBjmz1n0F1csCYFocyNSVryFf+UWTDMhDmbQdeX3k9AMMBxEj5hhNhuLt9hl4wVjIHZq4y2Erk7yjLa9B7SZKja50zQbFHMMoY3e75zS5YH2ciDEzRKzjcHgF9ygI6bGA6BNeicgRppm0M69IJ/6VyPeA7hs1KMijtuq9U+AfwIzh/eeAOuT9XfF/VI0w4RC9E9oLxau3cDZ0EAcuCwEQw3Qki7G9CduZHZqTO+AowXYwBGEVrpZU7S7MlEZ4gCsVEYIuDQTUwNgOSus5jTNIM2cSy0FddQJPjRbQuQQJ2GTrSPiwUJrkEYmcXZVwpyiuQQc5grcTFwAZhMZJmwpFs0teFzDtQYNjDGYzutb5e1EmqGmlqCcNYtcwZuRjTCLOsNWmG1sjQZ17es3w1VmRi5FM1RniEaaxqITPKfZaGZBZ2zx7sAeZ24BrQ46sgmHsbC1+HZz5XXC+8hk/ZeaGuzMjBgwj1vEH7Mlog4Hc3VRpIVtx3vJtVOLkyB3IBeaGXyndjYzRhc6C3I691cGoYoWOo6XJ7XnVPA87BC2zECYVq0nwBhPUPXMCerr7oG3FmLBrwNryut4F6jR+QeDYIpvGzN5C+WZC3O5fkuHkZvi9XmaLRZovAFxqbwuE7kTIXwiW/fzBNQbU34n9VvXdRuJDd2YuvfmpAieZv2uCQfehay0UATDz7wxBQK/f3O6fUc6y4FTCuL89vXhveGGyL/dfQPch6fZhw+QX58oaRY+72xUc4afiFTTyniWBe+fKTMnRGiSIvTg+VPSvLXu10HwztmmTnA4e1PlRQB4BkOZFGECkGbeIMlkbyqliXZc8fx5Bkm0NunBhH3TzGvRjFbagi2+s5cE5fk1zOGeH8w9qbBvmnlCtonul0DYwc2iy38+3JKUShWmed1CT4vD0pzRGlCI5Mum09zZn9eHtzwiW8Xz2r015VkqcFiad5qsKHizOSM3SYKzPz+vXKWyXrvur09g+4JizzQLjqOMzGZ+Xt3BbFbhpesqFy6hufz08PrHjus90yzs8meRgxxixnWqXoHugLM7NdH5NVqZfO8+QhYmMfZMs+DjyYhmfutE7U/ZDQ8GgzpcZjd+mYoVJPgf0LwXaUb4ljfa06FYf7BfbO+b5ox0M0/zHnQzxjvAtdRwn80LxMPSDN3QNYDPhMgm7kOON4gLb+3+0Hub906z4H1owfvXQdiiyqDHb59eX7/KrIdnkGepoQ4diHFYg84cCA2CED63Y2+/797dBN8/pLaaIAGKIdxn7T0OuzxR78xaQXD77RRf+undnVImG27+J/93Qzo8bfldpzgOS3NGRoHg09ihBNX1e8pqcxu85wKSdYmwXmtWLPumWYjsgvevg+Ch295+eZWaxu4bdxF4A1ysC8Fg3zTPMvy+CQR/89aBvIq6RYICuIPyPFWE6uf2T/PWcSA6CPZLZ8tu1BV11lOGZ3i4nTpWY980C3uBmUSQZxMNow2I4xTtD2gGhTpWcd80ew7sOjsICYFbzYH6SHK2oM4jOEhXKc77plkUvGyUs5CTsVVpK3isMihVLX45b4qb7Z1mISU2m+V2ne90m+W20U5zqdqwiIVW3G3vNAsbStl4LcXcLPvwD3PcLVOxBFJJI6FZ4RjdO81iMlA2wfpCcrL9Vi5g0UElEzwHpmp9YeydZrsUQijE8inWHUAqvZDVoEVkv0I5759msS5EJpOgYMBYT4KQWY0mBkMSL2OoVoL7p3kkMJJNUKhYX8yyOSj9coqvhro18sBCD/ugOZUXn0m44onQqUX0HwJIDZA0YvBy+2/SLBaGyWRTacc8cFMZypgyvNiAr0/+Is0pRjJZcYsqv21uwgBUtoTMgfBsIFjZkr3QnPso8pyFAylV1sfKgQSTTBzJBSsMgwArW7IfmtOVn7JQz6nKVjZzK0yaMc0Wq21Q2ZL90JwuWwJfpKjNv1SlB7gyqgB1M17SwVM1VSUIDkKzpNQfTJ57up2RdCkQ4NJnXs51QZYGCXSBsqx00R2GZkkZa0iSWVMfp5TuFBKm7t2EahxkolGrAfRW+CY8DkOzrAa58V4jtATR0Syp7Xpj/ErQfNwBTWprGhMANTVUJUIPRbOsQmhfK9C9uEaoNuourfNNiiNe1XRAvk1Gz0KVszIP6FA0S6sKl5WW3QjXhNUHN0prNytTAibY4RTSfGVWA2wtZpjW+HubVATyAzMuZOdb9aq0JKyeZkWB+rns9Q2p4upAih1xzjZYbSSVt/mANKcXKZjpMXNq2yQo8ZFbhlBd5XELs9aIpvkPlk1uEwetZIwmHa8AfgDEuaEO8DoczbmZipKI7HKtVpYc7mOKiNYeitA+v6xdShQLotm05KCVpCJAoghsj5eBwJ5meeVwA4yB56KfFYJoXf5ZT5wrhGrpD/CJWmjS2Q5Js6TC9u40b3HIR+L+eNfpgfQ6w1TlxFXsT0U4KM3S0vy70mx3HA5Dc+5ezbMrqd1gOChMmwN7WJrFnf9MaBYLAoFpPlPy7P6U3UZ77J0+jvzANOcqigM0dqJZVlJeB1I25FlKXENlmKkPcZwaDto9NM12J84550BXXs/qKB8ak3OXzmddu+9Ki+HbrYzohts1JWMenubcBDwT9i0il9MV4FUoss7V6y4brI8ou9fmv3994q/Pr6fumzll7S/QHMoeiOiNZXg47CDCsejBvv58j9LhQ0ynrts1HrP9jVzfQKdFP92ZsqgQeO+LRW4IT7NtPZKJ0eaYb1GMpG46a60sD+G7/nr36+qq+/AIrABz/ennQ/ftrfvw8wWYuu2VWFhEsA64hlvs7gVj5Vlu7eK2Jc90h0p3VvaVRP8XqAwLIivtTqG+Y5hd0PLF8z9O56tsapP+h9ELlsPSqlSqL4PsjqOveKN6Kex1uAx62cRUH3HEEUccccQRRxxxxBFHHHHEEUccccQRRxxxxBFH/I/RG43oTs1oNKJbWN5oZLtlGHYGvfTPi3HnXIlAehv5r/vDaGSxYVxigyXQbiH5n3P7kh9FeJM3lyYBnZnPWOKwYUY5IMEVp5mdLQCD1XEfFSbmYYloJqlBjnNje+cx/GS6boPQ/Oqq8oEUOKUJ0ye0skXt4DRbHPWU69PRFZ0+rcUbbFGJwoJmKs1n7tTyHJUbMmSPSbA5PM02h9d8pDULbpzChmR8n2xRMt2CZoozt7H1cTV/k2Y7DIkAD0Jix2SsX7YoX3OkWYkKEf5wNpzUiWwLcWoVw9w2QPyKNJsaxXCZE48t0WMKjic0DwwvWjamyiAlURPQTyykN56QuxHl7DsXKPEtzqvvsaW8gyhZpqxUIr0Z+vsJT3MchnmhSE58eI6rNV6/P6/ztz/exePECrVy0lVtkYR/TsqX8ak8fi2Oy/bKZcfZLMqxYCCa44HMpXT0ymUvjpT0OaZbcaD5jInGmoxTPw3ivDafJg+f1pha5ycXwl/Du/VyLZRvuInDFT9iKyxKjN0kNWtWTDI5OSvoi2z4NFizU2BoJiGYbalIX03jKfDadaNjJkSbroSDr1GmR2ygDvGXdp4IBk62ie3lkGaS5STLpA4VTICDv2lkIpNI0kr/Rko50Lwecv4SY2nQBkSowrt5OF5vlox+mPxhGcUfR7Iwp5oOvdpq4JUuFDyjhysGXhzui2lGLI8Db4hERSZc2KA7e3ycrn+8pg6omeCnWJFH8/GQsEFXWVXDq0qr+D3WnHb4pktLFJ0vi8sNn+/C6dcrvTFvtjr+0guGZWbs4T8LIy9AodgB/ak68kZFpimlGVXaKA+90Zh5V+Hdwi6ry+EseauVJL27FT3FMjEw+iRSO3yR7ZiohbwQdz+RjkmbDrVHxjOXn9hK7WbFFFhOSPWxOORIODS1mwXdHA99IhdnVEouPrVrSN9Dk0isT7qq4w9pSZhc4U9mRXPhKc2X2PZFtxjQu8UMVpMLb2I9sYj/Ezep0A9mQQvpSouQjki1sIDS7NM3spEW4jXSfJJw5TjJ3OYRC5PSLFgaCQNVqTh4lP0ZGZLDmuC0efL99c8TJovkMuc0RbNHi4OViCh49CtO3m7SR0JsOTqbus5+LyQD4aNsMV2kNJ4TmunwkexIqtUYae7FusKLNK4XP33yJyXNCYsj6Ql2Hv2sAjKk3hLP6xMiLa100cSCpEdCM1vshDw3c7fL+Ld4ahklxFYjKqn9PGJYKsmWLIwvgUyBPSbfYSLVGkaak1VWK/y+42csk26UNCf/CqTnynjMr5K6W1QQkcKr8ZH2aPrplPg5htC8YGYfH79r+nGgFQj6zyS6f5NO3yX0JPiZwttvyqcxNrLxM5pkhWkesVUmpAcZmmmOP7JOaFeeI8InVKC2ppkYGNyQglLTj+wxLBmx7bYpMLouLtpwXmV0PqH5glkXVbES9+gnMUv+foEaEGKj29GBCml16e+fUSpDTHOd/cjastJ4ZpqX0eeFuCmgcQ6pwtqaZmIHU68Im81GPkCcXdmnGTo4A2zD6Acf/6NPLmvhdymhGcnNhAytE77pEdW3YUO/SVBI58Iw1SHrUpqlrj4zzTlEYYCGuESjmdOPZnea+7iH2OK98E+CCZfXVU/YZ7xnpRlvGjM0UzHS0RySMlkSYpFhd0K/g5KpcHqbXkuURsCKvbRKJ4DmjlML5eo86mGVY3rMQmkkX2BojHZi8gdi+pwX1YzhLMPIlKYGRELzOaM0xvhdSmgOX+SoyVo23ow6+QJTddcOnQHIYrvCzDGe1DELoDl8aeH0gla0p+EylpHFrWnG1w7wM43oeUoeO2sn/6W2NPmJrh3IY/nMy6hhMiQ0h8q5taBchB3x3zx5WXOnnd4IalFx7xODjvFiN6XmFYDmkIwglsCm014xIrM1zXgSaWGLqUXH1iI0X5DuyUdJm1J1yK5dMKMToqdlNBcdn+EiFGX2Y5kTJ9KAYZxiQnRTiS5PqmTQE/lqm6NZsXty4SziG4ZCd8N80twqULJ7oqQZ12Qlz8Ew5LDS6ZEHKuG+6YMtcQM/9YQ+6U9Gc1R1giw8IucEHV4F2xeDvrzY+Th510vWp+EkdmOvLz+1j9mkcvP532eyJFmkCU9xb4zFTmkOX/x5ZRI/I4TmSPFMzsnfybp1gBIov5AfY3dXj/AQft6bCW5AnhB//+E4b6IGRW5RmaIZvQ86W/YcXptGL2E+Rqaj/GA45Pfyx+VQH1OavbgRclLJXBoszbfrvCutKIOeKX5FZe7FM3uB0dxPJI62k9Mc2nG1MbIhyMSBOi62quEwZxtiyqArFuMiGjv+xJHDpDMuosvxPMqQVIsaROa2R++WohnZkcw06wjGBfECqjLZE1OnVWe+iR4uiyU/gZLZ2X5xpw33SnYReagm97I2nG2D73DK0izxcqNVYCFlpmHXaAuRi2WE1EyjNMzwT4zdTPcCsauYluPwqGXUoSvqUomxXJYlYV2ZqxcXtVlVXQ8zGC8WxV6uV1oxDZdhI7+l2HF4eX0l//599/BZWlQiHEj8jwGXRV8v0cf3msXElqe/VqQ595F8eR9rnSbnl6nPFwsfCW2PadWr+ovFnJu5veastpgz4rdi8/MHJ7NaZ8xsA4RjwP+3LGV0cu9/At6WZ0kdYYUjzQfBkeaD4EjzQXCk+SD4mzT/C7DWcIzN16hGAAAAAElFTkSuQmCC</t>
   </si>
   <si>
     <t>Inter</t>
   </si>
   <si>
-    <t>https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2RW5KbGMybDZaVjkwYjE5bWFYUmJCMmtCcWpBPSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--79eee5883893a012786006950460867831e6f661/nccsoft-logo.png</t>
+    <t>https://ncc.asia/assets/images/logo.png</t>
   </si>
   <si>
     <t>We do it with passion</t>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>the.letien@ncc.asia</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBUVFRgVFhYYGRgaGhoaGBoaHBgaHBwcHBoaGh4cGhgcIS4lHCErIRgYJjgmKy8xNTU1GiQ7QDs0Py40NTEBDAwMEA8QHhISHzQrJCw0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0MTQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NDQ0NP/AABEIAQMAwgMBIgACEQEDEQH/xAAcAAACAgMBAQAAAAAAAAAAAAAEBQMGAAECBwj/xABHEAACAQIEAwUFBQYEBAQHAAABAhEAAwQSITEFQVEiYXGBoQYTMpGxQlLB0fAUYnKCkuEjM6LxBxVT0iSywuIWQ1Rzk5Sj/8QAGgEAAwEBAQEAAAAAAAAAAAAAAQIDBAAFBv/EACMRAAICAgICAwEBAQAAAAAAAAABAhEDIRIxQVETIjJhcRT/2gAMAwEAAhEDEQA/AL21DvRxtVhsCrqSREU3rZYEDfcHoRqPUCpcPbzKG2kbcx1HiDp5UwFsDlQ6rldl5NLr4zDgeZDfzmu5HUDvZFRMOlG3IodhVIsDIAnWoby0aLZri5aplLZwqKVyUpgMLXfuAKpzQtCw2SahayKaPbNC3BRU2wUBXEAoV1o84cms/YzVVNLyK1YqdK5/ZyacDDgcqxcGWpllSF4CcYapkwJOp0HfTYWQvjQ1655mu+WUujuKXZCMKq6mo2cDYfjW7hJ3/XlUQUDfQetNFX2K36N5yRpt1oS/cHjUz9rRVNYcLl+LeqxSXYrtgBBNclaLcdKjFuqqRNg8VlE+7rKPJC0er5a0RXVhs6gxG4IO4YGGU+BBFSm3Xzh6tA2WhcZbMZgJKHMB15MB3lSwHfFMGSoyhoig3uwRI1nauRYqbDJllPu6r/A05fkQy+CipMlG2Ah92Kia1Xd3FINC6g+I+lRjFJvmUjqDI86NnUc+7qNrVGoQwlSCO6s933UU2Cha9gt4ViYADemXuzXQtE0eTBQqawByrkYYnlTZrccqwKIruTDQpOEjcVE9uO6nLChr6AcqKk/IGhFfQnYUHctxTq4DyFBPhWY61phOibFDqTWksU7sYFZ7XyG/9qkfBzssfrrVfmS0JQqRwgMDtHu2oV7ZYzTv9g61tMATRWSK2c4tiFcLUq4KN6eNbROWvzoYozdwo/K2K4pC/wDZR0rKP9yOtZR5s6kXF+w+b7LkK3c+gVvPRD35O+iqx0DAqRIIII7joaHw9w6oxlliT94H4W8wCD+8rdK8ijdZOwmtZRW65u3AoLHYV1AB8WwSHJgLIY9FMSfIhT4A1Rfaf2yCv7q0jux0VRIJJ2kLt4GPyZe0/EXgKNCxhF6dXYdwmB4bTXl78ZSznNte2ZVWOpCnckn7R5nXntOovdDxjq2N8V7RYywVN7DoqE6QZ8R8TAHxFM7Pt3YCSVcudssAg95JIjumvMsVxB3JLHehVczNFWc0j0XGe35zTbQr1MhSe8hRE99Wn2X9u0vOLd2FLGFY6GeQbkfEV4sgZjoCaPtW3QglT1phWj6XCCu6o3sV7YLeQW7h7ajXv1gHz086uK4meVHi2LpEptg71z7oVFcxXSomvE7mjxYLRO6CoSgrkGaxpo0CzllHSuHA6CunbrUT3QBNGhWzNfu1oIals9rU6CuHvgaLRVgI2QL8RoS/dJ0G1TtbZtdh1NQMQOc1SNCNg/u+6uXQ+FStcNDOw561VCOjiF+8Kyusy/d9aymsBeoofFWzo6ySsyBqWU/EoHXQEd4A5miiK5JrzjaRqQQCDIIBBGxB2PhUV62Dq3LUc9fDrXElCVJCqxJTc67sv/qA/iGy0JjVZlMs6r4lXbu7MZAdtZOvKlbCkece3/Fsrui63D2d/gQSG8yRXm2KXL48zVx4raAzuFEu45R2UG897anxql498znoNBU4Pky0lxQEFJNPOG8GLjXbSg+F2QziavvDrUDaqSlQsVYNgeCqigUxHD1I2o9EqQLQTDxK7ieFPab31jR1mV+8OY86uHsz7RftNs6ZXTsup3B/LQ0h4jxEoQiLmc/JR1Nb4WptXTdkF3AV1URJGqtHMjUHuPdWjFJXTIZYurRdffNUllyTWsJbzqG2mi0tgbCrSlFaRCKYRbQgSdqHv4vko866uMSIJqJbK9Kkmu2O2+kDFmY6maltoNz6/gKJWzFZ7nmdaLmuheLI4Zu4eprbKE5SalOKVNIk0vxGKdv3R3fnQim/8BJpHOJuE/EY7v1vQrOOXr+VaeTuSa0i1dJJEXJtnDTUZFElK17uu50GgbIayivdVlD5EdxZeCKiZe+iLgG80K7gcxWJG1qiC/YDCJg7htyCNiJ+nPagcddm0xAhoKsOjZTprymCD0g0e2JA6fOlPGnGRnDDkGAI1Oynx1jwjpSy1FseG5JHlHtPdyLymJ8JJ/tVCczVm9r8SM5QGYJLHvP62qrvrSYo1ErldsdcCtyZq94G3oKpHAjrp1H1q5vivdoIEu2iiul2CIxuOqCWIA765s4pX+EzSG9hZOe++vJZ0HlRuCdDohGm4rrodHPFF90Ll4CSFLf0qTHpSzgqNcKXWzh8xkkkKwj7KA7axJ6c5q3KgYQRWkw6rsoFFMDiWPgGKDrkPxDbvH506FvuqlYbEFHV13Uz/avQUxKFVYRDAEeBE1VTtGeUOLAhhyeVSiyF3IqZsSPCgrl+dh511ti6R2z/ACqNmHIT6fWo8zHYfOttZY7t5D+1cLZG58B+v1yoe8g3JolrQHKoTamnjJE5JgJWTXa2u6jVw9SBIrpZRVjYGMP1rDbolyKHd6m5tlVA4y1lazVlDkw8C1X2X72viPxoRgx2ceQH50YLbRAhenP0H51sWG5ufIKB9CfWusrQGMKT/wDMbyUH/wBNIfa4hbL52ZlVCzTKgcgIAGp2GnOrTdwynViTHIs0eYB1rzP/AIk31FlgigBm7MAZiBpMnZZk9+YbaVOT8DwWzxzEuSxOmpnTbXpQxapHqMiqgH/s4wzGrtaA+KNYgd1eaYDEFGB+deg8MxYZQetSmikGKeI4K7iLh3CqezI0O8mPp59atXCsCVALkswULmO5AojDBaNDCgpeCnHyDkwYqG9ilHLM3IAxNbxBMyDrtrSjEZLMsTLHUncnxJ8dBXJnVehjiHIAPX61ePZrFTh107SkrPqPQ15nw92vXFLnQSVXyImOW9eh+ygK23HR/qo/Kmj2SzRcVTHRsM+p07zW/dIu/aPpWEsa0Ep2zNRw948gBUJBO5orJUbAClckg8WyEJW4rLoDKQDHLQ7GO6keF46huXFYhVWIkgDTQ0rkOsdpsdMaHe4c0GIjTrPOk/E/aOzbYAMXbYrb7XQ77T660pxXF8Tc+BBaAMgvq3jHntFdFSl0D6rss2JuALLPkHUkD1NV3Ge1FlIVBnJ3iYB+pNKnwDOZu3Hc9+g8Klt4dUnKoH8I117zqa0RwSfZOWVLoJ/+J2/+nf1/Kt0NI/U1lV/5l7F+ZnsdaM1uhnvEzkiObt8IjoBq3oO+spoNYwSApiGPa0+yASRvsYg9xNeU+3OIa77z3YLyHOYCEVFOQkGO1J6T8APKvScZhAQHcl8pzZT8MQQf8MaEiZ1BOm9U/ituMO7EgyojuUZxHmHB8SahldFsas8KuLyqOKnvLBI7zQ1w1o8Ehlh8OCubeabcKxBSQDmHPqKreFxbIdIIO4O39quPBGF1A0ZQSVA325zHp3UrTehlJIfYHFyNDTNb01ScRjhh73u2ESAVIMgg6ajdTIIjWnOH4kCKk1RWMrDuILeP+Xl7y06eApWnC7pMtqepP0HKmtvFg1MMWvWusopNdGuG4AJ2iZbrV69khmR/4l+h/tVLwhe8wS2uZj3gDTmSdAKv+Cspg7OVmBYy7E82gbDeBAH+9MnRDJ9uxkUqG48TETymkuI9qrZJVAzmNMik6x06eelIMQcXdMlgg7zJ0/cXTYDc0yjJkbii33cYgUsXAA+In7PiKrXEfay0MyIGd9IABIJzDp89htQScEUznd3ncFsqn+Vd/Mmi0wyIIVVUdwA+lMsXsDn6BW4riruUZFtKGUsxMMVBMgJrGh302pNhsClxmLgkTMSRMzvFP8Rojfwt5aHvpZwxYzSY0Hz/ABoqKU0hlJ/E2TWsKiaIgXwET4ka/OtmO4+YMbfnRLESNDvEQZJ8BrHeaBxeMVZgdrWZjKPlv9PGtDnGC2Z4wlN6OcTeCDUweh3I8DsPGuAFYBl237UEnr2Ry8qFtYfOczloOwjVvE8l/WnM1QCICZVkCG0J8tIFHG5SfJ9ehsqhFcY7flkWZP0rf91aqfOn30/0/wDdWVYznqdxgTHIbxz6D8/KtOWYgAQBqfLb11/lqdBE+P4Ctga15xuAsfaPu3ObXI8ctcpik3FeHr7i8kQmQldpHZ28NfrVgxqzbcdVYehoS4mZTI0ZSpHTQwPkx+VSyKykHR8x8Xt5brg9TS24Ks/tjhMl0abqJ8df7fOq24qsJXFME1UmgejMBxO7YnI0AmSCAQSOcH8OgoQ1yacQmxmLe6xdzLHy06AVYvZvFFxladDAPXnE9aq6qSQBqeVXTg3D8qbTtI6+fLxqcq6Y8b7Q6TCTzqVcLFc4O8RuZWYk6MD0ccj37GDExTQCRUuLT2WTTWjrhSkOqqxRiYDDcTp3VYjwlG1uM90j/qMSP6f96rNt8rAjcHSrPf4mQAQo1ggyY9K0QqtmfIm5aCVtKohQAByAAHyFaI/X62pW3FH/AHY6Za7w/FTs6iOo0PrvT8kTcJBjL3z5a/3qMoYO3dv6jnU/aiVjXadvGFifnUV+4FQliQBvlgTryjafGmuhO9C7ijFLcGJbsjXXXUmOQgUvweKCHWYI5d3nrzrjH4jO06hQIAOunjS17vLXSs8pfbkjXCK48WN8bxQxlSQDptqfChMPhM3bZ1AUg5d48RzPSJoNcSoPUjYbmdtAKEw3End4QGScojnOnyNcpLlb2dKFRajos4cAF5kT1MnWNTpHpUF0EqW+FZjWCdvsggD5CO+jWwig6uCeigEzG2gIA8ZrHwZUQAZ30Et9TH9Q7q3JnnCn33/3f/5/lWUz/kf/APLc/Kspjj1Ksqr8Y9srNpf8OLjTqJKADrJHa8qr/E/blns9iEYntAZpC9c5gQT01/HCbD0O/cVVJYhVgySQB8zSHE8fsJpmLEgaKNmGxkwDpG3SvNsTj8RiMnbe4xmAJMCFHl9ramn/ACu88MSE7MGdWkb6c4EdKlJ7KRS8lU9v0DOGGmpIHcTpr4GqM3OvT/bjh+RF5wBr4Ej8Qa8yurBP62/2NdheqHyq3YIa5rt967wtnO6r1OtWI0M+A4LMcx/l/Or3gkAEUBwrh4AUfIdKtWF4eAJqTdloqhUuCYSyjXXoZB5Ecx3VNYflt3fgJ38N/Gn1u1FdvhUcdpQfGmS1TFlraEot7GmaWy9rLzVtPKDHyPpXDIqtlJ0M6HcGJ35ggH9GicEuUsJ3hh5aE+q08IpOvDEk7V+UC3E51C2lFXvjI5bjz/RoXE6CaWeho7GvDbgZMpXMRt3A/vRpz+dLfaW7kyW1CqIzFVA01IAkedE8Ec5wojtAjWeXa5eFJvaRh+0PlIgZQMsRookad80XK4k4xqYsxN1wBlPjUHaIkk/IfoUUqZqn9yOdSo0oUe5zaMJBHPnVk4Jw5kAf3csR8bwEQdd5JI6Duka1zwvh4uEkoxQbRoCddS2mg7qfYkQqoEXbRSwAAnfKqknxjxNXxQr7MzZ8t/VAC4orKpBG2ZECKTzgnMW8l8Sa3iMUwEBSwHx3HfsjwXWT5Ci3sKwAKsx+6BAj+aAR4gio72FAiVQDZc7T/Tr6AedaTGJTxW5ye1HLR/zrKZ+6/ftf0D/urKNI4B4f7H4loa5ktqTrJzN5KvPzFWDDezGHQHPmf4c2YgLppMDlzgkju2qxvb6g92gJ8ZOkd561HdhBrr05yOnmYjavP5M20L8qoAqIAvwgKAPKBz8q2loqxB3In5aEf+WjCmSWYCSOpYgdIjTblpQ91wsPzB7ttjJ8YPlQChH7S4MNZ7ewC66bSF06/F9K8g4/hQj5horAMB05N6z869x4hZz2XAMko4iNZysNOmsRPSvIePxdUsvIggRrD7iPNfkaS+MrKr7RoqDL+VNOAWZJaNiBS1hv4j8vwqx8CtAIvUknymB9D6VZvQkUXDhFrtL03q1qNKQ8KULr5fSnDXqi5bLJaJQ1SK1Bh6mRqopCtEfEMJnAI+JTp3jmD5E1Dw24ZAPf9P8Aaj1NCXLeVg3KQfWapF7RKS0ybEpz6fQ/3n50txz9hu5SfkKduo57bGq7xQlUcHkGHpRyxpgxO1QXwhzmQ7GR66d3WguOj/xLq3LKOX3F6ac664fc0FR8eJN7OSSWRWkwOq6BdIGWPKp+BmvtYMoy+FGYCx714iVGrb69BI258xtQuHWabYDEJZVmZXYsYARXY6CfsiBvuSKMFcjsk2ojV8IuUB8oRdlGg8IEk+lL8bxZfhRLrRytoVX+ZuXmfKohxlXJyoy9QSueP4UFxx/pqUYcN2ir6aqGEuf4TcZiPktal/TC2C2LuJchAyWgRIVSrPHUmCoHeFJ7xUd7Cvmy2rWePiu3GJDHukkuPFiO4VI+OdGyyltSf8u2Pe3m73acqnxOlc47G3Cvai0p2DMzO/giAE+G1MlsDZJkxXW36flWUu9wfu4j/wDXFapwHp2IuBF0TNHXQDTQ7x686F94w7byJmFLGF0I0J1178u8CdSZcQVKhhl33O8byukjaZEExv1FS6SDkQwIl3IkEk7JybbQwTppXmm43ZRAM7ETHxEjfXZNp313oexcVw+kjUZnIEk8p+xMjv7q6JZiQyM8DW4/ZVecBeR/hDd9axOKAcIOyT8Oc5SQB9lNDH8PpXHA9pgi5Xy5tRlXMY1iYgnWOgFeUXbYVvdkR2Mh6kI1yyPllPzr1rD4ZgwVAsRJhSAeRhtAANNxOteZe3OGNu5cI3zsBGkZriXNOvxn50su0imN9lIx9sqzA78/TXz386sXC1+EfdVQP6Ry+dRe09hc+kA8u/VyPQCpeDsDlI+6gPiqhfwNFStIZxpstuBvEQDz2PI/kabI9I7O0cqYYe5oKVoZDGa6R6hVq3Ncmc0Go1buLmEUMj0Qj1VMRoJzTrVb9p2ygn72UfNgv0p8pikftdbzWgRupzfyqVLemvlVpPlGyMVxlQHw59qk4r8Sfwn6z+NBYF9BRWOecnn+H5GoeC3kkwlS37bmIuBV5qUDgnqc3ZFRYaj7F60ks6Fm0CwpZtZ2A8PSqYn9iOZfU1Yw1xhBxTBfu20tg+WSY86OW2FGVEdp3ZzlJ8W3PlFcPxG6R2UZByN11t/6AQT/AFUuvNdckPi0UfctSzeEJH+omtFsyUgz3bWvgsgdTKWlH8TvLHymlz31U53vprpkw/Pua+xzHwB8q4GFsof8lnbkbhzsf5AYFdvxQIdcivyCJmfwCqdPNhTpAZz+0v8A9Ef0XT6xrWUH/wA8vdL3yT8qyiA9FwuLa83ZtuEG3+WFIIGsSVA20kt5UU2QEqFzRpocqSdwWAAPOfiI6Ur4nxRsGty3bt53Y/8Ah0AJLM5+CByVsx1I7JHjTJLlxbaG7kS6UUuEzMM+UZgo1yrMwZ2ia86S9G5HT32ChAADGuVSVA+6pMZvLXuqAYIQXuOUGzMSqloECSkHwGnhUlq47HKBlkalgzPHeEIInlOXzqUIoIYAs0dnNyHdplQd49TS9BIsNdVUZlXKqn/MeFmf3Rr03g6bdfLfbH/EfOQdbqGdBowjYbTkmO6vVXt5h24JUEgCAojWADMHkTv4bV57x/DB3BOmdy7HkqIC2nd2HjuaknLaLYo6bKJ7UJCq32iyg+VtZ9Sa54Jqk9CRI3XX1Fd+1l8N7sDQ5WcjoXYR6A1nsoZDDo34T+dNG+KOl+iz4V2gbMOo0P5US92DoI8agtIBtpRGWuOTCcJjgTlbQ+h8DTCkRt0dhMXlhXOnI9PGhR1h4MVMj1GwrSmmTOaDlaaHx6kAMBIWZB2gxIPcRIPjXaNU6tVIsSUSlAhWZV2DHL/CdR6EVMLmYjnpGvjNF8b4UULXU1Q6sPunaf4dvCleENB6O7Q1tKCNMwPLVSPmRP1oyzwt8QwRHNsSM5zOCw2UErvudNBJ76CsNXHF+I3LNpjb+JoXN90fEWy/ajLoOuusRTxlsScVWzHvYDD5ptvcdXdO1BDZHZc+8Qcs8zrQb+0buctrDIByXtv/AKVyj0NL8CuGyJ797hiY92AWIJmCraTPPPzp1dZSSlh1w6QpTMUV7quisIe4wQNqykZgQRpyqtmVx9A17i11B20tISPhUEsfFQY+etQ2zjbo7CMiHnAtqR6A1DicZcwzFRZdHOz3pZz3poEjv7XjSbFYx7hJdyx/eJP1mKbmvArixt+zt/1LH9ZrdIZH73pWUflBxPeXw0LadBlNtwRECZBRgYHOdaLsWviJUgneSx+UnTypm9hSCOpnzmedae0PCsrRqsDywI1+ZJ+czW/L6mgMXxNEAYsMpzBXmUJB2LjQagjXrQ2J43g8uZr1tpEhQ4cnuyAnXypNDUyTimKXKyrABGVn7h9kHmRr3ATVA4m4dHvuSqk5LaSdUAI101+Ea/8AdR3F+OC6YCuVPwog7bKNYEaKNpM6dNJKbi9q9eyllVDoqW01S2J0Ab7bzBZttY13EWrbZojpUU3GsX945+0yKvcozf8AZXPsndy3GWdwI8R/vTzj2A93hkIjtszoPtZFRUE/zO586qfAny3l86rH8sST2j0azrRAFDYYzFFgUAmZaidKIBrlhXHG8Ji8nZf4eR6f2pkRQGFwedgSOwNz1j7I699NXXWqLG2rQryJOmco9T23odlraNSpjDBWnSq/xPg+Q5rY7HNR9nw/d+nhs6tvRCvT9oRqmVOwaIZlkFyuVTLBphhsV01kzyoviPDsvbQdnmo5d47vp9Fl25GmTPPLXKII1br3DnXQX2FnL6sBsYQFmSyhZM5KMROVDsCW0kDQ9450ZikQWxlC3GtEh1Ook5nVSRyj3/mO6iHt3Ck3WypE5E0kDecpmPOKAwuK7TIqBUdSyAKJZrX+IczTzQXFj94VoMt2xavH8QilEyIhIJti2htkazKPIadNSCe8VEmPwz6XLBRvv2NV87Fxoj+F18K4OBdnZQGYBiJJMRy0O2lbbDonxuFP3VEH56/Su47By0Efs2G/69vzs4mfOt0H7+z0b5mso8X7Ba9Fw9gvat3drbEIgCi0gkpuxYS2pc6GZ6x3+o2cSGGqkaA67EEfrSvlxLzlg2bXZQup8APwjWvZ/YrFXzhhndhcUlcjn3iFSZBIMFCBpCtGmomoSi+0abT0OX4FZtW3RFYI7l3HxkE7QCJyjaBrHWKRHhmHJKtcu5jsud4JHTKQxEdCIjXvsi8RZR/iW2X95JdfQZh5jzrpnS6mmR16GGE/ganQ+0V1cLaSWFpAvMKp7R2Bcse2e7tUFes3LxK20OYgqXaAEB7LGJ5L2R3k9Ksq4ASCQqjuknwBPw+VHIioIVY6AUriMpUeS/8AEXCm1bUAkgAW5jnAZtOkMg+dUDhmlxT0M16p/wAVVAw2HGhlnZj3sUY+OvpVA9msI7NcurBNtQxXmQXQSPNl8iaeKpUdJ27LjgnGUa0zs2Xb4VJ8tPntTHB2QuxHlr6ijgaZY/6I8v8ABZa4a5+IhfU+mnrRdrhyLuCx/e2/pGnzmigKyelUjjiibySZoiNBoOQ6eVRlaky12EqiQliXGXWS71UqCR5kSPlU1u4rDMpkfloa1xy18D7fYM8tyD4DtVNbtoqBUMqoPaBB6kkkcyZPnUJQbk2aI5EkkdI9Eo9LrVwMJFEI9STKtB6tpSzE2Ut5njTfUgKvlEnwoxHrMTZV0ZGEqwII7jVYunZKcbVFN4rx9SuRBM/ExnXbQDypLg+JZLiXYnKys2xJAPaUdxWR50dxXg64c9okqSchO5jkY0BEilxuoNgKv2jJ+WMPaCy6OUUtALIdSAxQwDHemQ+dAYbBc3IUd+9OOIP72wlwbm2uaPv2mNlvmnumNJ7Cidix7yY9K5b2c+xl+zYf9D/31qhvdn7p9a3TUKeuXuB4eyR7uxaQRAyog8pAk1E9sr8IA8AB86e4mHUgb7jxpQ7VBdGiRljGg6EQfT+1S3cKjaspn7wkHyZdaWX1jtcuf51tOImzrqyk/CI36idtvShKPoMZA3FeKmy6W1YsHgux+IKSy5VKjMJKmTuBt0M3su11A6PBAMKCSxXUz29zOh6U6d0vAN8RjTQSPE9KFv2jbOYDMOaz8Q6a/aHfuKRKuyneih/8TMM1xrSycoZogiO3lnTuyz863/w89nj7pbrJ2buHuKTpqTdldN9kQ/y0bg/aBsTi/dXsJ/gKSA76MrL8LASMyGTyPxjlM3i0VAhQAO4R9K6jnLwVPAYQooQntLo0GRPcTy6UbTDHYXtFhGuw2M8/WgGEVSL8E5LycMa2taNdKJqqJEiCuiVCl2MDrUOJuqi5mMDkOZ7lFIsbjGuHXRR8KjYePU0kpqI8YNmY3Gm4YGiA6Dn4nvoVJBkEiQQY5g8j1FaNZmjWs7k27ZpSSVIlsXIceGveCY28cvr1o/C4gOuYdSCOhVip8pU0kRjmLeX+q3+Ob5VHbxTW87LuGOh2Oa88D1qssdxXskslSfotCmiLdzrSXAcVRxImJIM8oJB8pG9M1Yb1FNp0yzV7RnEsCl5CjiQfmCNiO8V57j8G9t/duoBWYKiM4JkMTz/CI616Vbeh+KcOF5NDlcfA43B/EGrxkQnCyq8MtBcOQymBcDmZ+C6vunBkfuWyP4qWWr2QZAgLglW0Y6gwTyHKedN+IlVuphdYKLJOrNdKEhs7awXAUARo3hCfHoS6um1xAx6Zl7LfQH+aqxIyWibJf6L+vKsoTIeo9KymEPchcpfi9GnkfrXfvKiuHMCKgi7BnahHQHsnbdT+t6kZ+VctrVKEslsSoygnlqNNtf0KJTFlhlffn/al5YxpuPr+vrXIdioaIP5ciOR2+dJXsezWNsiDPwySWA1TT4wNcw6iOh5VJwrivaCORP2TO4025ncCanRsw6H6H8qTcRwMSyaLPaA0ynyI7Pd+FBKv8Gu++y0Y8BkqqXcU6kgMfOD9aZ8Fxjujo4JKR2uvqe/foeklPjzDGs0nU3RoirgrOG4lc6j5Cuf+Y3fvkeAUfhR1ng6lA7P9ksVVTIUJnBzbE5e0Rp0BLaUvfDgKhzCW36DvMa6fOnuXsTjHwiJ3JMsST1JJPzNaFS2rOfKAdSzCI6AEfU+EVJ+xNp2htPfrmgDqTkaI6cpoBsCd9YqN2nwGp8uVQhHzvMZQ0KQd4AmBy1mpLhjsiJ0+fIfj4A1WEPLJzn4RmeIB6knwSST/AFGlvv8AsM51E547lBuAeIdlFTY1wFfXSMinn1cz4f8AlqB1GVVPNlzDof8AMP0QVayITgQbdtE+2Rr4nUn5k1ZOH31dMynSSD4gwaqruZJG/wAK+Jp5hrgsqigSNAR16nx51OePktdlIT4vfQ7UxRVu5QgYMoI2NYhioRb8mhpGuL8IS+FaclxCCjhcxUgzESMwnWJ3qp422EDoUzGxdLQdijgjxjVG8qu9q7Q+PwKOGbKJKlG/eQzofCdKvCW9mecbWjzr/mD/APTT+hfyrKu2fCfawtpm+0fdW9TzPw8zWVemZtlmNZWVlSLAeK3rgVlZTroRm+Y8Pyrpftd6/Qr+Z+ZrKykkMiOz8Qoh9x3gz31lZTMHkQYA5eIOg0X9mYx4XlA+p+da4h8RrKysUv0bYfkBzH4ZMdJMddvGsFZWUTjhqHuOduRbb51lZTR7El0TLQ1ree5j5zE/IVlZWozAGI1Fsdyn+phNbbb+d/RyPpWVlAJLg/jXxJ9KY4r4xWVlNEDGvCXMMJ5j8aOetVlZsn7Zpx/hHdqikrKyuR0jfuV+6PkKysrKcQ//2Q==</t>
   </si>
   <si>
     <t>paly</t>
@@ -105,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -136,6 +133,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -143,15 +154,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,9 +177,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,39 +191,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,7 +207,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -242,6 +238,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -250,14 +254,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,21 +468,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,22 +502,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,153 +540,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,8 +1041,8 @@
   <sheetPr/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
@@ -1155,12 +1152,12 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I3" t="s">
@@ -1170,7 +1167,7 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>22</v>
@@ -1180,8 +1177,8 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="dat.lethanh2@ncc.asia"/>
     <hyperlink ref="C3" r:id="rId2" display="the.letien@ncc.asia"/>
-    <hyperlink ref="H2" r:id="rId3" display="https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2RW5KbGMybDZaVjkwYjE5bWFYUmJCMmtCcWpBPSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--79eee5883893a012786006950460867831e6f661/nccsoft-logo.png" tooltip="https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bk"/>
-    <hyperlink ref="H3" r:id="rId3" display="https://itviec.com/rails/active_storage/representations/proxy/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaHBBNGsyREE9PSIsImV4cCI6bnVsbCwicHVyIjoiYmxvYl9pZCJ9fQ==--54a20447090fbe5c3893559090121b4b338e6596/eyJfcmFpbHMiOnsibWVzc2FnZSI6IkJBaDdCem9MWm05eWJXRjBTU0lJY0c1bkJqb0dSVlE2RW5KbGMybDZaVjkwYjE5bWFYUmJCMmtCcWpBPSIsImV4cCI6bnVsbCwicHVyIjoidmFyaWF0aW9uIn19--79eee5883893a012786006950460867831e6f661/nccsoft-logo.png"/>
+    <hyperlink ref="H2" r:id="rId3" display="https://ncc.asia/assets/images/logo.png" tooltip="https://ncc.asia/assets/images/logo.png"/>
+    <hyperlink ref="H3" r:id="rId3" display="https://ncc.asia/assets/images/logo.png" tooltip="https://ncc.asia/assets/images/logo.png"/>
     <hyperlink ref="L2" r:id="rId4" display="http://ncc.asia/"/>
     <hyperlink ref="L3" r:id="rId4" display="http://ncc.asia/"/>
   </hyperlinks>

--- a/Book3.xlsx
+++ b/Book3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7870" windowHeight="6800"/>
+    <workbookView windowWidth="18530" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -133,13 +133,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -148,6 +141,75 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,84 +223,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -247,14 +254,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +467,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,6 +487,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -498,6 +507,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,30 +552,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -551,29 +560,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,7 +586,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,118 +595,118 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
